--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -68,12 +68,6 @@
     <t>Nescafee</t>
   </si>
   <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>19m</t>
-  </si>
-  <si>
     <t>صلاة الضحى</t>
   </si>
   <si>
@@ -87,12 +81,6 @@
   </si>
   <si>
     <t>14m</t>
-  </si>
-  <si>
-    <t>YouTube</t>
-  </si>
-  <si>
-    <t>20m</t>
   </si>
   <si>
     <t>Quran</t>
@@ -140,9 +128,6 @@
     <t>9m</t>
   </si>
   <si>
-    <t>21m</t>
-  </si>
-  <si>
     <t>Breakfast</t>
   </si>
   <si>
@@ -150,9 +135,6 @@
   </si>
   <si>
     <t>40m</t>
-  </si>
-  <si>
-    <t>Eating</t>
   </si>
   <si>
     <t>صلاة العصر</t>
@@ -209,12 +191,6 @@
     <t>2h 5m</t>
   </si>
   <si>
-    <t>55m</t>
-  </si>
-  <si>
-    <t>1h 15m</t>
-  </si>
-  <si>
     <t>سورة يوسف</t>
   </si>
   <si>
@@ -228,6 +204,42 @@
   </si>
   <si>
     <t>15m</t>
+  </si>
+  <si>
+    <t>Giza Systems</t>
+  </si>
+  <si>
+    <t>Discussing NMS, LMS, NPC, NPG Projects</t>
+  </si>
+  <si>
+    <t>12h 40m</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>5h 48m</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>سمك فيليه وارز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بيض مسلوق فى الزبدة وبطاطس </t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>ارز وبطاطس وفراخ</t>
+  </si>
+  <si>
+    <t>31m</t>
+  </si>
+  <si>
+    <t>1h 5m</t>
   </si>
 </sst>
 </file>
@@ -917,8 +929,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K443" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="B2:K443"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K441" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="B2:K441"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Date" dataDxfId="9"/>
     <tableColumn id="2" name="Day" dataDxfId="8"/>
@@ -1198,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N443"/>
+  <dimension ref="B2:N441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1209,10 +1221,10 @@
     <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="17.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" style="3" customWidth="1"/>
     <col min="9" max="9" width="76.140625" style="6" customWidth="1"/>
     <col min="10" max="10" width="5.28515625" style="3" customWidth="1"/>
@@ -1261,7 +1273,7 @@
         <v>42736</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -1276,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="1" t="s">
@@ -1290,67 +1302,75 @@
       <c r="B4" s="9"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E4" s="7">
-        <v>0.21458333333333335</v>
+        <v>0.22083333333333333</v>
       </c>
       <c r="F4" s="7">
-        <v>0.22083333333333333</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>0.23194444444444443</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5" s="7">
-        <v>0.22083333333333333</v>
+        <v>0.24722222222222223</v>
       </c>
       <c r="F5" s="7">
-        <v>0.23194444444444443</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.27361111111111108</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.23194444444444443</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.24722222222222223</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="1" t="s">
@@ -1364,82 +1384,84 @@
       <c r="B7" s="9"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E7" s="7">
-        <v>0.24722222222222223</v>
+        <v>0.27638888888888885</v>
       </c>
       <c r="F7" s="7">
-        <v>0.26805555555555555</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E8" s="7">
-        <v>0.26805555555555555</v>
+        <v>0.3354166666666667</v>
       </c>
       <c r="F8" s="7">
-        <v>0.27361111111111108</v>
+        <v>0.36041666666666666</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E9" s="7">
-        <v>0.27638888888888885</v>
+        <v>0.36180555555555555</v>
       </c>
       <c r="F9" s="7">
-        <v>0.30208333333333331</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>56</v>
+        <v>24</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -1449,103 +1471,101 @@
         <v>49</v>
       </c>
       <c r="E10" s="7">
-        <v>0.3354166666666667</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="F10" s="7">
-        <v>0.36041666666666666</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K10" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E11" s="7">
-        <v>0.36180555555555555</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="F11" s="7">
-        <v>0.37361111111111112</v>
-      </c>
-      <c r="G11" s="1" t="s">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K11" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7">
-        <v>0.38541666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="F12" s="7">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>29</v>
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="4" t="s">
         <v>32</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K12" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E13" s="7">
-        <v>0.41319444444444442</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="F13" s="7">
-        <v>0.56111111111111112</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>7</v>
@@ -1558,22 +1578,22 @@
       <c r="B14" s="9"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E14" s="7">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="F14" s="7">
-        <v>0.56874999999999998</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>7</v>
@@ -1586,21 +1606,21 @@
       <c r="B15" s="9"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.65138888888888891</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="7">
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0.58402777777777781</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1612,19 +1632,19 @@
       <c r="B16" s="9"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E16" s="7">
-        <v>0.58680555555555558</v>
+        <v>0.87916666666666676</v>
       </c>
       <c r="F16" s="7">
-        <v>0.61458333333333337</v>
+        <v>0.88750000000000007</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="1" t="s">
@@ -1638,51 +1658,53 @@
       <c r="B17" s="9"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E17" s="7">
-        <v>0.625</v>
+        <v>0.91180555555555554</v>
       </c>
       <c r="F17" s="7">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K17" s="10">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E18" s="7">
-        <v>0.65138888888888891</v>
+        <v>0.94374999999999998</v>
       </c>
       <c r="F18" s="7">
-        <v>0.875</v>
+        <v>0.94652777777777775</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="4"/>
       <c r="J18" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="K18" s="10">
         <v>1</v>
@@ -1692,79 +1714,61 @@
       <c r="B19" s="9"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E19" s="7">
-        <v>0.87916666666666676</v>
+        <v>0.95486111111111116</v>
       </c>
       <c r="F19" s="7">
-        <v>0.88750000000000007</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="10">
-        <v>1</v>
-      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.91180555555555554</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0.92708333333333337</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
+        <v>42737</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E21" s="7">
-        <v>0.94374999999999998</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="F21" s="7">
-        <v>0.94652777777777775</v>
+        <v>0.13541666666666666</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="K21" s="10">
         <v>1</v>
@@ -1773,82 +1777,104 @@
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>58</v>
+      <c r="D22" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="E22" s="7">
-        <v>0.95486111111111116</v>
+        <v>0.15208333333333332</v>
       </c>
       <c r="F22" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G22" s="1"/>
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
       <c r="H22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="10">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="23"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.18263888888888891</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.24166666666666667</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="8">
-        <v>42737</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E24" s="7">
-        <v>4.4444444444444446E-2</v>
+        <v>0.22430555555555556</v>
       </c>
       <c r="F24" s="7">
-        <v>8.2638888888888887E-2</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="J24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K24" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E25" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="F25" s="7">
-        <v>0.13541666666666666</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="1" t="s">
@@ -1861,104 +1887,104 @@
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="7" t="s">
-        <v>54</v>
+      <c r="D26" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E26" s="7">
-        <v>0.15208333333333332</v>
+        <v>0.24305555555555555</v>
       </c>
       <c r="F26" s="7">
-        <v>0.17777777777777778</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K26" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E27" s="7">
-        <v>0.18263888888888891</v>
+        <v>0.77638888888888891</v>
       </c>
       <c r="F27" s="7">
-        <v>0.24166666666666667</v>
+        <v>0.78611111111111109</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="K27" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E28" s="7">
-        <v>0.22430555555555556</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="F28" s="7">
-        <v>0.22916666666666666</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K28" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E29" s="7">
-        <v>0.22916666666666666</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="F29" s="7">
-        <v>0.23958333333333334</v>
+        <v>6.805555555555555E-2</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="1" t="s">
@@ -1969,25 +1995,39 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="10"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="23"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="B31" s="8">
+        <v>42738</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="7">
+        <v>7.9166666666666663E-2</v>
+      </c>
+      <c r="F31" s="7">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="J31" s="1"/>
       <c r="K31" s="10"/>
@@ -1995,23 +2035,45 @@
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="4"/>
+      <c r="D32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.17013888888888887</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.17847222222222223</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="1"/>
       <c r="K33" s="10"/>
@@ -2019,22 +2081,46 @@
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="10"/>
+      <c r="D34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.20069444444444443</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="9"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.21875</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.23472222222222219</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="4"/>
       <c r="J35" s="1"/>
@@ -2043,9 +2129,15 @@
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="D36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.24583333333333335</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="4"/>
@@ -2055,8 +2147,12 @@
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="7"/>
+      <c r="D37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.24861111111111112</v>
+      </c>
       <c r="F37" s="7"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -6901,40 +6997,16 @@
       <c r="K440" s="10"/>
     </row>
     <row r="441" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B441" s="9"/>
-      <c r="C441" s="1"/>
-      <c r="D441" s="1"/>
-      <c r="E441" s="7"/>
-      <c r="F441" s="7"/>
-      <c r="G441" s="1"/>
-      <c r="H441" s="1"/>
-      <c r="I441" s="4"/>
-      <c r="J441" s="1"/>
-      <c r="K441" s="10"/>
-    </row>
-    <row r="442" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B442" s="9"/>
-      <c r="C442" s="1"/>
-      <c r="D442" s="1"/>
-      <c r="E442" s="7"/>
-      <c r="F442" s="7"/>
-      <c r="G442" s="1"/>
-      <c r="H442" s="1"/>
-      <c r="I442" s="4"/>
-      <c r="J442" s="1"/>
-      <c r="K442" s="10"/>
-    </row>
-    <row r="443" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B443" s="14"/>
-      <c r="C443" s="15"/>
-      <c r="D443" s="15"/>
-      <c r="E443" s="16"/>
-      <c r="F443" s="16"/>
-      <c r="G443" s="15"/>
-      <c r="H443" s="15"/>
-      <c r="I443" s="17"/>
-      <c r="J443" s="15"/>
-      <c r="K443" s="18"/>
+      <c r="B441" s="14"/>
+      <c r="C441" s="15"/>
+      <c r="D441" s="15"/>
+      <c r="E441" s="16"/>
+      <c r="F441" s="16"/>
+      <c r="G441" s="15"/>
+      <c r="H441" s="15"/>
+      <c r="I441" s="17"/>
+      <c r="J441" s="15"/>
+      <c r="K441" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -240,6 +240,39 @@
   </si>
   <si>
     <t>1h 5m</t>
+  </si>
+  <si>
+    <t>3m</t>
+  </si>
+  <si>
+    <t>2h 58m</t>
+  </si>
+  <si>
+    <t>5h 30m</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>20m</t>
+  </si>
+  <si>
+    <t>أرز وفراخ مع زرد</t>
+  </si>
+  <si>
+    <t>NPC &amp; NPG first Workshop fullday</t>
+  </si>
+  <si>
+    <t>12h 17m</t>
+  </si>
+  <si>
+    <t>44m</t>
+  </si>
+  <si>
+    <t>11m</t>
   </si>
 </sst>
 </file>
@@ -1212,15 +1245,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="3"/>
@@ -2029,8 +2062,12 @@
         <v>32</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="10"/>
+      <c r="J31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
@@ -2053,8 +2090,12 @@
       <c r="I32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="10"/>
+      <c r="J32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
@@ -2075,8 +2116,12 @@
         <v>25</v>
       </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="10"/>
+      <c r="J33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
@@ -2121,10 +2166,18 @@
       <c r="G35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="10"/>
+      <c r="H35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
@@ -2138,11 +2191,19 @@
       <c r="F36" s="7">
         <v>0.24583333333333335</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="10"/>
+      <c r="J36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
@@ -2153,114 +2214,238 @@
       <c r="E37" s="7">
         <v>0.24861111111111112</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="10"/>
+      <c r="F37" s="7">
+        <v>0.7631944444444444</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="10"/>
+      <c r="D38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.77361111111111114</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.8041666666666667</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="10"/>
+      <c r="D39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.8041666666666667</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.82013888888888886</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.95694444444444438</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="10"/>
+      <c r="J40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="10"/>
+      <c r="J41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="10"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="23"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="B43" s="8">
+        <v>42739</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="I43" s="4"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="10"/>
+      <c r="J43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="9"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="10"/>
+      <c r="D44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.22361111111111109</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.23541666666666669</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="9"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0.23541666666666669</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I45" s="4"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="10"/>
+      <c r="J45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="7"/>
+      <c r="D46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0.24861111111111112</v>
+      </c>
       <c r="F46" s="7"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ahmed\Projects\Web Development\AM-Tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Giza Projects\AM-Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2456,9 +2456,15 @@
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="D47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0.52430555555555558</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="4"/>
@@ -2468,7 +2474,9 @@
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="9"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="1"/>
@@ -2480,21 +2488,35 @@
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="9"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="7">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="F49" s="7">
+        <v>9.5138888888888884E-2</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="H49" s="1"/>
       <c r="I49" s="4"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="10"/>
+      <c r="K49" s="10">
+        <v>27</v>
+      </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="E50" s="7">
+        <v>0.1013888888888889</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.11805555555555557</v>
+      </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="4"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Giza Projects\AM-Tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ahmed\Projects\Web Development\AM-Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="128">
   <si>
     <t>Date</t>
   </si>
@@ -273,13 +273,151 @@
   </si>
   <si>
     <t>11m</t>
+  </si>
+  <si>
+    <t>39m</t>
+  </si>
+  <si>
+    <t>24m</t>
+  </si>
+  <si>
+    <t>12h 15m</t>
+  </si>
+  <si>
+    <t>45m</t>
+  </si>
+  <si>
+    <t>ملوخية وتسقية رقاق وحمامة</t>
+  </si>
+  <si>
+    <t>SOAP - Tutoiral Points</t>
+  </si>
+  <si>
+    <t>EJBs - Tutorial Points</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Reading NPC Documents</t>
+  </si>
+  <si>
+    <t>2h 15m</t>
+  </si>
+  <si>
+    <t>Clothes</t>
+  </si>
+  <si>
+    <t>طقم كتب الكتاب - بليزر وبنطلون وقميص</t>
+  </si>
+  <si>
+    <t>Finish NMS Docs - Talking to Shrief</t>
+  </si>
+  <si>
+    <t>Shaving</t>
+  </si>
+  <si>
+    <t>Shaving my beard</t>
+  </si>
+  <si>
+    <t>Grandfather</t>
+  </si>
+  <si>
+    <t>صلاة المغرب</t>
+  </si>
+  <si>
+    <t>Talking + صلاة العشاء</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>58m</t>
+  </si>
+  <si>
+    <t>6h 12m</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>2h 30m</t>
+  </si>
+  <si>
+    <t>4h 30m</t>
+  </si>
+  <si>
+    <t>27m</t>
+  </si>
+  <si>
+    <t>Eating</t>
+  </si>
+  <si>
+    <t>13h 20m</t>
+  </si>
+  <si>
+    <t>كتب الكتاب</t>
+  </si>
+  <si>
+    <t>5h 25m</t>
+  </si>
+  <si>
+    <t>3h 20m</t>
+  </si>
+  <si>
+    <t>6m</t>
+  </si>
+  <si>
+    <t>صلاة العشاء</t>
+  </si>
+  <si>
+    <t>1h 24m</t>
+  </si>
+  <si>
+    <t>54m</t>
+  </si>
+  <si>
+    <t>1h 3m</t>
+  </si>
+  <si>
+    <t>5h 26m</t>
+  </si>
+  <si>
+    <t>56m</t>
+  </si>
+  <si>
+    <t>42m</t>
+  </si>
+  <si>
+    <t>حمامة محشية</t>
+  </si>
+  <si>
+    <t>كبدة</t>
+  </si>
+  <si>
+    <t>Lynda</t>
+  </si>
+  <si>
+    <t>Building a Website with Node.js and Express.js</t>
+  </si>
+  <si>
+    <t>55m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +430,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -431,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -500,6 +643,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -962,8 +1120,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K441" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="B2:K441"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K447" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="B2:K447"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Date" dataDxfId="9"/>
     <tableColumn id="2" name="Day" dataDxfId="8"/>
@@ -1243,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N441"/>
+  <dimension ref="B2:N447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1857,7 +2015,7 @@
         <v>54</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="K23" s="10">
         <v>1</v>
@@ -2446,581 +2604,1215 @@
       <c r="E46" s="7">
         <v>0.24861111111111112</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="F46" s="7">
+        <v>0.76180555555555562</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="I46" s="4"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="10"/>
+      <c r="J46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="7">
-        <v>0.49861111111111112</v>
-      </c>
-      <c r="F47" s="7">
-        <v>0.52430555555555558</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="10"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F47" s="26">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="G47" s="25">
+        <v>0</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="J47" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="28">
+        <v>60</v>
+      </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="9"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.49861111111111112</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="9"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E49" s="7">
-        <v>6.1111111111111116E-2</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F49" s="7">
-        <v>9.5138888888888884E-2</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H49" s="1"/>
+        <v>0.53125</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="I49" s="4"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K49" s="10">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E50" s="7">
-        <v>0.1013888888888889</v>
+        <v>0.56111111111111112</v>
       </c>
       <c r="F50" s="7">
-        <v>0.11805555555555557</v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="10"/>
+        <v>0.59513888888888888</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="10">
+        <v>27</v>
+      </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="10"/>
+      <c r="D51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K51" s="10">
+        <v>15</v>
+      </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="9"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="10"/>
+      <c r="D52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.65069444444444446</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.65625</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="9"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="10"/>
+      <c r="D53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K53" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" s="9"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="10"/>
+      <c r="D54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K54" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="9"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0.88263888888888886</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0.92291666666666661</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="I55" s="4"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="10"/>
+      <c r="J55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K55" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="9"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="I56" s="4"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="10"/>
+      <c r="J56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K56" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="9"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="10"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="23"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="9"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="B58" s="8">
+        <v>42740</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.19305555555555554</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="I58" s="4"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="10"/>
+      <c r="J58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K58" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" s="9"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="10"/>
+      <c r="D59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.19930555555555554</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K59" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="9"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="10"/>
+      <c r="D60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K60" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="9"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="10"/>
+      <c r="D61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K61" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" s="9"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="10"/>
+      <c r="D62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K62" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="9"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="10"/>
+      <c r="D63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="7">
+        <v>0.90625</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K63" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="9"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="10"/>
+      <c r="D64" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" s="7">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="F64" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K64" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="9"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="10"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="23"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="9"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="B66" s="8">
+        <v>42741</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="I66" s="4"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="10"/>
+      <c r="J66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K66" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="9"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="10"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="26">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F67" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="G67" s="25">
+        <v>0</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="I67" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K67" s="28">
+        <v>4</v>
+      </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="9"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="10"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="26">
+        <v>0.25069444444444444</v>
+      </c>
+      <c r="F68" s="26">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="G68" s="25">
+        <v>0</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" s="27"/>
+      <c r="J68" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K68" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="9"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="7">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0.28611111111111115</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K69" s="10"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="9"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="10"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F70" s="26">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="G70" s="25">
+        <v>0</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I70" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K70" s="28">
+        <v>4</v>
+      </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="9"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="10"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" s="26">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F71" s="26">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="G71" s="25">
+        <v>0</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I71" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="J71" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K71" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="9"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="10"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="23"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="9"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="B73" s="8">
+        <v>42742</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="7">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="I73" s="4"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="10"/>
+      <c r="J73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K73" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="9"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="10"/>
+      <c r="D74" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K74" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="9"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="7">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="I75" s="4"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="10"/>
+      <c r="J75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K75" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="9"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="7">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="I76" s="4"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="10"/>
+      <c r="J76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K76" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="9"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="10"/>
+      <c r="D77" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K77" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="9"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="10"/>
+      <c r="D78" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" s="7">
+        <v>0.52361111111111114</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K78" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="9"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E79" s="7">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="I79" s="4"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="10"/>
+      <c r="J79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K79" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="9"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="10"/>
+      <c r="D80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K80" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="9"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="10"/>
+      <c r="D81" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="7">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0.67291666666666661</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K81" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="9"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E82" s="7">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="F82" s="7">
+        <v>0.74861111111111101</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="I82" s="4"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="10"/>
+      <c r="J82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K82" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="9"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="10"/>
+      <c r="D83" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="7">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K83" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="9"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="10"/>
+      <c r="D84" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" s="7">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K84" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="9"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="7">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="F85" s="7">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="I85" s="4"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="10"/>
+      <c r="J85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K85" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="9"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="10"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="23"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="9"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
+      <c r="B87" s="8">
+        <v>42743</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F87" s="7">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="I87" s="4"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="10"/>
+      <c r="J87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K87" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="9"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E88" s="7">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="F88" s="7">
+        <v>8.4027777777777771E-2</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="I88" s="4"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="10"/>
+      <c r="J88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K88" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="9"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="10"/>
+      <c r="D89" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E89" s="7">
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="F89" s="7">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K89" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="9"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E90" s="7">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0.21319444444444444</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K90" s="10"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="9"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="10"/>
+      <c r="D91" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" s="7">
+        <v>0.21388888888888891</v>
+      </c>
+      <c r="F91" s="7">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K91" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" s="9"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
+      <c r="D92" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E92" s="7">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="F92" s="7">
+        <v>0.24652777777777779</v>
+      </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="4"/>
@@ -3030,8 +3822,12 @@
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="9"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="7"/>
+      <c r="D93" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E93" s="7">
+        <v>0.24861111111111112</v>
+      </c>
       <c r="F93" s="7"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -7204,16 +8000,88 @@
       <c r="K440" s="10"/>
     </row>
     <row r="441" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B441" s="14"/>
-      <c r="C441" s="15"/>
-      <c r="D441" s="15"/>
-      <c r="E441" s="16"/>
-      <c r="F441" s="16"/>
-      <c r="G441" s="15"/>
-      <c r="H441" s="15"/>
-      <c r="I441" s="17"/>
-      <c r="J441" s="15"/>
-      <c r="K441" s="18"/>
+      <c r="B441" s="9"/>
+      <c r="C441" s="1"/>
+      <c r="D441" s="1"/>
+      <c r="E441" s="7"/>
+      <c r="F441" s="7"/>
+      <c r="G441" s="1"/>
+      <c r="H441" s="1"/>
+      <c r="I441" s="4"/>
+      <c r="J441" s="1"/>
+      <c r="K441" s="10"/>
+    </row>
+    <row r="442" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B442" s="9"/>
+      <c r="C442" s="1"/>
+      <c r="D442" s="1"/>
+      <c r="E442" s="7"/>
+      <c r="F442" s="7"/>
+      <c r="G442" s="1"/>
+      <c r="H442" s="1"/>
+      <c r="I442" s="4"/>
+      <c r="J442" s="1"/>
+      <c r="K442" s="10"/>
+    </row>
+    <row r="443" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B443" s="9"/>
+      <c r="C443" s="1"/>
+      <c r="D443" s="1"/>
+      <c r="E443" s="7"/>
+      <c r="F443" s="7"/>
+      <c r="G443" s="1"/>
+      <c r="H443" s="1"/>
+      <c r="I443" s="4"/>
+      <c r="J443" s="1"/>
+      <c r="K443" s="10"/>
+    </row>
+    <row r="444" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B444" s="9"/>
+      <c r="C444" s="1"/>
+      <c r="D444" s="1"/>
+      <c r="E444" s="7"/>
+      <c r="F444" s="7"/>
+      <c r="G444" s="1"/>
+      <c r="H444" s="1"/>
+      <c r="I444" s="4"/>
+      <c r="J444" s="1"/>
+      <c r="K444" s="10"/>
+    </row>
+    <row r="445" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B445" s="9"/>
+      <c r="C445" s="1"/>
+      <c r="D445" s="1"/>
+      <c r="E445" s="7"/>
+      <c r="F445" s="7"/>
+      <c r="G445" s="1"/>
+      <c r="H445" s="1"/>
+      <c r="I445" s="4"/>
+      <c r="J445" s="1"/>
+      <c r="K445" s="10"/>
+    </row>
+    <row r="446" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B446" s="9"/>
+      <c r="C446" s="1"/>
+      <c r="D446" s="1"/>
+      <c r="E446" s="7"/>
+      <c r="F446" s="7"/>
+      <c r="G446" s="1"/>
+      <c r="H446" s="1"/>
+      <c r="I446" s="4"/>
+      <c r="J446" s="1"/>
+      <c r="K446" s="10"/>
+    </row>
+    <row r="447" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B447" s="14"/>
+      <c r="C447" s="15"/>
+      <c r="D447" s="15"/>
+      <c r="E447" s="16"/>
+      <c r="F447" s="16"/>
+      <c r="G447" s="15"/>
+      <c r="H447" s="15"/>
+      <c r="I447" s="17"/>
+      <c r="J447" s="15"/>
+      <c r="K447" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="134">
   <si>
     <t>Date</t>
   </si>
@@ -411,6 +411,24 @@
   </si>
   <si>
     <t>55m</t>
+  </si>
+  <si>
+    <t>6h 3m</t>
+  </si>
+  <si>
+    <t>50m</t>
+  </si>
+  <si>
+    <t>1h 35m</t>
+  </si>
+  <si>
+    <t>6h 2m</t>
+  </si>
+  <si>
+    <t>Lynda TD Course + Intro to Review + New Places</t>
+  </si>
+  <si>
+    <t>ارز وفتة ولحمة</t>
   </si>
 </sst>
 </file>
@@ -1403,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B79" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="B90" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3813,11 +3831,19 @@
       <c r="F92" s="7">
         <v>0.24652777777777779</v>
       </c>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="I92" s="4"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="10"/>
+      <c r="J92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K92" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="9"/>
@@ -3828,126 +3854,262 @@
       <c r="E93" s="7">
         <v>0.24861111111111112</v>
       </c>
-      <c r="F93" s="7"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="10"/>
+      <c r="F93" s="7">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K93" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="9"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="10"/>
+      <c r="D94" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" s="7">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F94" s="7">
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K94" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" s="9"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="10"/>
+      <c r="D95" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F95" s="7">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K95" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" s="9"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="10"/>
+      <c r="D96" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E96" s="7">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="F96" s="7">
+        <v>0.81388888888888899</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K96" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="9"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E97" s="7">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="F97" s="7">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="I97" s="4"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="10"/>
+      <c r="J97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K97" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" s="9"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="7">
+        <v>0.9375</v>
+      </c>
+      <c r="F98" s="7">
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="I98" s="4"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="10"/>
+      <c r="J98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K98" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="9"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="10"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="23"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="9"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
+      <c r="B100" s="8">
+        <v>42744</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="7">
+        <v>0.19236111111111112</v>
+      </c>
+      <c r="F100" s="7">
+        <v>0.19930555555555554</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="I100" s="4"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="10"/>
+      <c r="J100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K100" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B101" s="9"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E101" s="7">
+        <v>0.21805555555555556</v>
+      </c>
+      <c r="F101" s="7">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="H101" s="1"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="10"/>
+      <c r="I101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K101" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" s="9"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E102" s="7">
+        <v>0.23472222222222219</v>
+      </c>
+      <c r="F102" s="7">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
       <c r="H102" s="1"/>
       <c r="I102" s="4"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="10"/>
+      <c r="J102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K102" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="9"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="7"/>
+      <c r="D103" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E103" s="7">
+        <v>0.25</v>
+      </c>
       <c r="F103" s="7"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ahmed\Projects\Web Development\AM-Tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Giza Projects\AM-Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="139">
   <si>
     <t>Date</t>
   </si>
@@ -425,10 +425,25 @@
     <t>6h 2m</t>
   </si>
   <si>
-    <t>Lynda TD Course + Intro to Review + New Places</t>
-  </si>
-  <si>
     <t>ارز وفتة ولحمة</t>
+  </si>
+  <si>
+    <t>Shrief</t>
+  </si>
+  <si>
+    <t>Installing The NMS Environment</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Foundations of Programming - Test-Driven Development</t>
+  </si>
+  <si>
+    <t>Intro to Review + New Places</t>
+  </si>
+  <si>
+    <t>TutorialPoints - Mockito</t>
   </si>
 </sst>
 </file>
@@ -1138,8 +1153,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K447" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="B2:K447"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K448" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="B2:K448"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Date" dataDxfId="9"/>
     <tableColumn id="2" name="Day" dataDxfId="8"/>
@@ -1419,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N447"/>
+  <dimension ref="B2:N448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B90" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView tabSelected="1" topLeftCell="B108" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3864,7 +3879,7 @@
         <v>128</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>7</v>
@@ -3874,132 +3889,134 @@
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="9"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E94" s="7">
-        <v>0.75694444444444453</v>
-      </c>
-      <c r="F94" s="7">
-        <v>0.76458333333333339</v>
-      </c>
-      <c r="G94" s="1">
+      <c r="B94" s="24"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F94" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="G94" s="25">
         <v>0</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K94" s="10">
-        <v>3</v>
+      <c r="H94" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I94" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="J94" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K94" s="28">
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" s="9"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E95" s="7">
-        <v>0.77083333333333337</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="F95" s="7">
-        <v>0.80555555555555547</v>
+        <v>0.76458333333333339</v>
       </c>
       <c r="G95" s="1">
         <v>0</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K95" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" s="9"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E96" s="7">
-        <v>0.80972222222222223</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="F96" s="7">
-        <v>0.81388888888888899</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="G96" s="1">
         <v>0</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K96" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="9"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E97" s="7">
-        <v>0.85763888888888884</v>
+        <v>0.80972222222222223</v>
       </c>
       <c r="F97" s="7">
-        <v>0.92361111111111116</v>
+        <v>0.81388888888888899</v>
       </c>
       <c r="G97" s="1">
         <v>0</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I97" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="J97" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K97" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" s="9"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E98" s="7">
-        <v>0.9375</v>
+        <v>0.85763888888888884</v>
       </c>
       <c r="F98" s="7">
-        <v>0.18888888888888888</v>
+        <v>0.92361111111111116</v>
       </c>
       <c r="G98" s="1">
         <v>0</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="1" t="s">
@@ -4010,119 +4027,135 @@
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="19"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="22"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="23"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="7">
+        <v>0.9375</v>
+      </c>
+      <c r="F99" s="7">
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I99" s="4"/>
+      <c r="J99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K99" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="8">
+      <c r="B100" s="19"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="23"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="8">
         <v>42744</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E101" s="7">
         <v>0.19236111111111112</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F101" s="7">
         <v>0.19930555555555554</v>
       </c>
-      <c r="G100" s="1">
+      <c r="G101" s="1">
         <v>0</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I100" s="4"/>
-      <c r="J100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K100" s="10">
+      <c r="I101" s="4"/>
+      <c r="J101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K101" s="10">
         <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="9"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E101" s="7">
-        <v>0.21805555555555556</v>
-      </c>
-      <c r="F101" s="7">
-        <v>0.23263888888888887</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H101" s="1"/>
-      <c r="I101" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K101" s="10">
-        <v>4</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" s="9"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E102" s="7">
-        <v>0.23472222222222219</v>
+        <v>0.21805555555555556</v>
       </c>
       <c r="F102" s="7">
-        <v>0.23958333333333334</v>
-      </c>
-      <c r="G102" s="1">
-        <v>0</v>
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="H102" s="1"/>
-      <c r="I102" s="4"/>
+      <c r="I102" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="J102" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K102" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="9"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E103" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="F103" s="7"/>
-      <c r="G103" s="1"/>
+        <v>0.23472222222222219</v>
+      </c>
+      <c r="F103" s="7">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
       <c r="H103" s="1"/>
       <c r="I103" s="4"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="10"/>
+      <c r="J103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K103" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" s="9"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
+      <c r="D104" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E104" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F104" s="7">
+        <v>0.34375</v>
+      </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="4"/>
@@ -4130,59 +4163,97 @@
       <c r="K104" s="10"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="9"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="10"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="26">
+        <v>0.34513888888888888</v>
+      </c>
+      <c r="F105" s="26">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="25"/>
+      <c r="K105" s="28"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="9"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
+      <c r="D106" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E106" s="7">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="F106" s="7">
+        <v>0.4375</v>
+      </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="4"/>
+      <c r="I106" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="J106" s="1"/>
       <c r="K106" s="10"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" s="9"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
+      <c r="D107" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E107" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F107" s="7">
+        <v>0.5</v>
+      </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
-      <c r="I107" s="4"/>
+      <c r="I107" s="27" t="s">
+        <v>136</v>
+      </c>
       <c r="J107" s="1"/>
-      <c r="K107" s="10"/>
+      <c r="K107" s="10">
+        <v>8</v>
+      </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" s="9"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
+      <c r="D108" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" s="7">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="F108" s="7">
+        <v>0.52430555555555558</v>
+      </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="4"/>
       <c r="J108" s="1"/>
-      <c r="K108" s="10"/>
+      <c r="K108" s="10">
+        <v>6</v>
+      </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" s="9"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
+      <c r="D109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="7">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="F109" s="7">
+        <v>0.53125</v>
+      </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="4"/>
@@ -4192,9 +4263,15 @@
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" s="9"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
+      <c r="D110" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E110" s="7">
+        <v>0.53263888888888888</v>
+      </c>
+      <c r="F110" s="7">
+        <v>0.56527777777777777</v>
+      </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="4"/>
@@ -4204,9 +4281,15 @@
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B111" s="9"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
+      <c r="D111" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E111" s="7">
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="F111" s="7">
+        <v>0.62916666666666665</v>
+      </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="4"/>
@@ -4250,59 +4333,89 @@
       <c r="K114" s="10"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B115" s="9"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="10"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="22"/>
+      <c r="J115" s="20"/>
+      <c r="K115" s="23"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B116" s="9"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
+      <c r="B116" s="8">
+        <v>42745</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="10"/>
+      <c r="J116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K116" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117" s="9"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="10"/>
+      <c r="I117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K117" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="D118" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="10"/>
+      <c r="J118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K118" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119" s="9"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
+      <c r="D119" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E119" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F119" s="7">
+        <v>0.34861111111111115</v>
+      </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="4"/>
@@ -4310,28 +4423,46 @@
       <c r="K119" s="10"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="9"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="10"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="26">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="F120" s="26">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="G120" s="25"/>
+      <c r="H120" s="25"/>
+      <c r="I120" s="27"/>
+      <c r="J120" s="25"/>
+      <c r="K120" s="28"/>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121" s="9"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E121" s="7">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="F121" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="H121" s="1"/>
-      <c r="I121" s="4"/>
+      <c r="I121" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="J121" s="1"/>
-      <c r="K121" s="10"/>
+      <c r="K121" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B122" s="9"/>
@@ -4348,9 +4479,15 @@
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123" s="9"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
+      <c r="D123" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E123" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F123" s="7">
+        <v>0.52430555555555558</v>
+      </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="4"/>
@@ -4360,9 +4497,15 @@
     <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124" s="9"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
+      <c r="D124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="7">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F124" s="7">
+        <v>0.53125</v>
+      </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="4"/>
@@ -4372,9 +4515,15 @@
     <row r="125" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B125" s="9"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
+      <c r="D125" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E125" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="F125" s="7">
+        <v>0.63541666666666663</v>
+      </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="4"/>
@@ -8234,16 +8383,28 @@
       <c r="K446" s="10"/>
     </row>
     <row r="447" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B447" s="14"/>
-      <c r="C447" s="15"/>
-      <c r="D447" s="15"/>
-      <c r="E447" s="16"/>
-      <c r="F447" s="16"/>
-      <c r="G447" s="15"/>
-      <c r="H447" s="15"/>
-      <c r="I447" s="17"/>
-      <c r="J447" s="15"/>
-      <c r="K447" s="18"/>
+      <c r="B447" s="9"/>
+      <c r="C447" s="1"/>
+      <c r="D447" s="1"/>
+      <c r="E447" s="7"/>
+      <c r="F447" s="7"/>
+      <c r="G447" s="1"/>
+      <c r="H447" s="1"/>
+      <c r="I447" s="4"/>
+      <c r="J447" s="1"/>
+      <c r="K447" s="10"/>
+    </row>
+    <row r="448" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B448" s="14"/>
+      <c r="C448" s="15"/>
+      <c r="D448" s="15"/>
+      <c r="E448" s="16"/>
+      <c r="F448" s="16"/>
+      <c r="G448" s="15"/>
+      <c r="H448" s="15"/>
+      <c r="I448" s="17"/>
+      <c r="J448" s="15"/>
+      <c r="K448" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Giza Projects\AM-Tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ahmed\Projects\Web Development\AM-Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="137">
   <si>
     <t>Date</t>
   </si>
@@ -428,12 +428,6 @@
     <t>ارز وفتة ولحمة</t>
   </si>
   <si>
-    <t>Shrief</t>
-  </si>
-  <si>
-    <t>Installing The NMS Environment</t>
-  </si>
-  <si>
     <t>Course</t>
   </si>
   <si>
@@ -443,7 +437,7 @@
     <t>Intro to Review + New Places</t>
   </si>
   <si>
-    <t>TutorialPoints - Mockito</t>
+    <t>بيض وجبنة</t>
   </si>
 </sst>
 </file>
@@ -1153,8 +1147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K448" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="B2:K448"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K437" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="B2:K437"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Date" dataDxfId="9"/>
     <tableColumn id="2" name="Day" dataDxfId="8"/>
@@ -1434,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N448"/>
+  <dimension ref="B2:N437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B108" workbookViewId="0">
-      <selection activeCell="F125" sqref="F125"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1508,16 +1502,12 @@
       <c r="F3" s="7">
         <v>0.1875</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J3" s="1"/>
       <c r="K3" s="10">
         <v>1</v>
       </c>
@@ -1543,9 +1533,7 @@
       <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J4" s="1"/>
       <c r="K4" s="10">
         <v>5</v>
       </c>
@@ -1562,18 +1550,14 @@
       <c r="F5" s="7">
         <v>0.26805555555555555</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J5" s="1"/>
       <c r="K5" s="10">
         <v>1</v>
       </c>
@@ -1590,16 +1574,12 @@
       <c r="F6" s="7">
         <v>0.27361111111111108</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="10">
         <v>1</v>
       </c>
@@ -1616,18 +1596,14 @@
       <c r="F7" s="7">
         <v>0.30208333333333331</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J7" s="1"/>
       <c r="K7" s="10">
         <v>3</v>
       </c>
@@ -1644,18 +1620,14 @@
       <c r="F8" s="7">
         <v>0.36041666666666666</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J8" s="1"/>
       <c r="K8" s="10">
         <v>9</v>
       </c>
@@ -1681,9 +1653,7 @@
       <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="10">
         <v>4</v>
       </c>
@@ -1709,9 +1679,7 @@
       <c r="I10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="10">
         <v>3</v>
       </c>
@@ -1728,18 +1696,14 @@
       <c r="F11" s="7">
         <v>0.56111111111111112</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="10">
         <v>1</v>
       </c>
@@ -1756,18 +1720,14 @@
       <c r="F12" s="7">
         <v>0.56874999999999998</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J12" s="1"/>
       <c r="K12" s="10">
         <v>4</v>
       </c>
@@ -1791,9 +1751,7 @@
       <c r="I13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J13" s="1"/>
       <c r="K13" s="10">
         <v>1</v>
       </c>
@@ -1810,18 +1768,14 @@
       <c r="F14" s="7">
         <v>0.62847222222222221</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J14" s="1"/>
       <c r="K14" s="10">
         <v>4</v>
       </c>
@@ -1838,16 +1792,12 @@
       <c r="F15" s="7">
         <v>0.875</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
+      <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I15" s="4"/>
-      <c r="J15" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J15" s="1"/>
       <c r="K15" s="10">
         <v>1</v>
       </c>
@@ -1864,16 +1814,12 @@
       <c r="F16" s="7">
         <v>0.88750000000000007</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J16" s="1"/>
       <c r="K16" s="10">
         <v>1</v>
       </c>
@@ -1899,9 +1845,7 @@
       <c r="I17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="J17" s="1"/>
       <c r="K17" s="10">
         <v>7</v>
       </c>
@@ -1918,9 +1862,7 @@
       <c r="F18" s="7">
         <v>0.94652777777777775</v>
       </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
         <v>46</v>
       </c>
@@ -1982,9 +1924,7 @@
       <c r="F21" s="7">
         <v>0.13541666666666666</v>
       </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
+      <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
         <v>53</v>
       </c>
@@ -2010,9 +1950,7 @@
       <c r="F22" s="7">
         <v>0.17777777777777778</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
+      <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
         <v>19</v>
       </c>
@@ -2038,9 +1976,7 @@
       <c r="F23" s="7">
         <v>0.24166666666666667</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
         <v>57</v>
       </c>
@@ -2066,9 +2002,7 @@
       <c r="F24" s="7">
         <v>0.22916666666666666</v>
       </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
         <v>55</v>
       </c>
@@ -2094,9 +2028,7 @@
       <c r="F25" s="7">
         <v>0.23958333333333334</v>
       </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
         <v>58</v>
       </c>
@@ -2120,9 +2052,7 @@
       <c r="F26" s="7">
         <v>0.77083333333333337</v>
       </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
+      <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
         <v>61</v>
       </c>
@@ -2148,9 +2078,7 @@
       <c r="F27" s="7">
         <v>0.78611111111111109</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
+      <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
         <v>17</v>
       </c>
@@ -2176,9 +2104,7 @@
       <c r="F28" s="7">
         <v>0.82291666666666663</v>
       </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
+      <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
         <v>35</v>
       </c>
@@ -2204,9 +2130,7 @@
       <c r="F29" s="7">
         <v>6.805555555555555E-2</v>
       </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
+      <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
         <v>63</v>
       </c>
@@ -2246,9 +2170,7 @@
       <c r="F31" s="7">
         <v>8.6805555555555566E-2</v>
       </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
+      <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
         <v>32</v>
       </c>
@@ -2272,9 +2194,7 @@
       <c r="F32" s="7">
         <v>0.17013888888888887</v>
       </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
+      <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
         <v>67</v>
       </c>
@@ -2300,9 +2220,7 @@
       <c r="F33" s="7">
         <v>0.17847222222222223</v>
       </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
+      <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
         <v>25</v>
       </c>
@@ -2326,9 +2244,7 @@
       <c r="F34" s="7">
         <v>0.20069444444444443</v>
       </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
+      <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
         <v>69</v>
       </c>
@@ -2382,9 +2298,7 @@
       <c r="F36" s="7">
         <v>0.24583333333333335</v>
       </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
+      <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
         <v>37</v>
       </c>
@@ -2408,9 +2322,7 @@
       <c r="F37" s="7">
         <v>0.7631944444444444</v>
       </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
+      <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
         <v>79</v>
       </c>
@@ -2436,9 +2348,7 @@
       <c r="F38" s="7">
         <v>0.8041666666666667</v>
       </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
+      <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
         <v>80</v>
       </c>
@@ -2492,9 +2402,7 @@
       <c r="F40" s="7">
         <v>0.95694444444444438</v>
       </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
+      <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
         <v>72</v>
       </c>
@@ -2518,9 +2426,7 @@
       <c r="F41" s="7">
         <v>0.1875</v>
       </c>
-      <c r="G41" s="1">
-        <v>0</v>
-      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
         <v>73</v>
       </c>
@@ -2560,9 +2466,7 @@
       <c r="F43" s="7">
         <v>0.19791666666666666</v>
       </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
         <v>75</v>
       </c>
@@ -2614,9 +2518,7 @@
       <c r="F45" s="7">
         <v>0.24305555555555555</v>
       </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
         <v>81</v>
       </c>
@@ -2640,9 +2542,7 @@
       <c r="F46" s="7">
         <v>0.76180555555555562</v>
       </c>
-      <c r="G46" s="1">
-        <v>0</v>
-      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
         <v>84</v>
       </c>
@@ -2666,9 +2566,7 @@
       <c r="F47" s="26">
         <v>0.48958333333333331</v>
       </c>
-      <c r="G47" s="25">
-        <v>0</v>
-      </c>
+      <c r="G47" s="25"/>
       <c r="H47" s="25" t="s">
         <v>92</v>
       </c>
@@ -2694,9 +2592,7 @@
       <c r="F48" s="7">
         <v>0.52430555555555558</v>
       </c>
-      <c r="G48" s="1">
-        <v>0</v>
-      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
         <v>19</v>
       </c>
@@ -2722,9 +2618,7 @@
       <c r="F49" s="7">
         <v>0.53125</v>
       </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
         <v>58</v>
       </c>
@@ -2804,9 +2698,7 @@
       <c r="F52" s="7">
         <v>0.65625</v>
       </c>
-      <c r="G52" s="1">
-        <v>0</v>
-      </c>
+      <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
         <v>20</v>
       </c>
@@ -2832,9 +2724,7 @@
       <c r="F53" s="7">
         <v>0.80208333333333337</v>
       </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
+      <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
         <v>85</v>
       </c>
@@ -2860,9 +2750,7 @@
       <c r="F54" s="7">
         <v>0.8125</v>
       </c>
-      <c r="G54" s="1">
-        <v>0</v>
-      </c>
+      <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
         <v>58</v>
       </c>
@@ -2888,9 +2776,7 @@
       <c r="F55" s="7">
         <v>0.92291666666666661</v>
       </c>
-      <c r="G55" s="1">
-        <v>0</v>
-      </c>
+      <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
         <v>103</v>
       </c>
@@ -2914,9 +2800,7 @@
       <c r="F56" s="7">
         <v>0.1875</v>
       </c>
-      <c r="G56" s="1">
-        <v>0</v>
-      </c>
+      <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
         <v>104</v>
       </c>
@@ -2956,9 +2840,7 @@
       <c r="F58" s="7">
         <v>0.20138888888888887</v>
       </c>
-      <c r="G58" s="1">
-        <v>0</v>
-      </c>
+      <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
         <v>37</v>
       </c>
@@ -2982,9 +2864,7 @@
       <c r="F59" s="7">
         <v>0.20486111111111113</v>
       </c>
-      <c r="G59" s="1">
-        <v>0</v>
-      </c>
+      <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
         <v>20</v>
       </c>
@@ -3010,9 +2890,7 @@
       <c r="F60" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G60" s="1">
-        <v>0</v>
-      </c>
+      <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
         <v>105</v>
       </c>
@@ -3038,9 +2916,7 @@
       <c r="F61" s="7">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G61" s="1">
-        <v>0</v>
-      </c>
+      <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
         <v>106</v>
       </c>
@@ -3066,9 +2942,7 @@
       <c r="F62" s="7">
         <v>0.89583333333333337</v>
       </c>
-      <c r="G62" s="1">
-        <v>0</v>
-      </c>
+      <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
         <v>67</v>
       </c>
@@ -3094,9 +2968,7 @@
       <c r="F63" s="7">
         <v>0.91319444444444453</v>
       </c>
-      <c r="G63" s="1">
-        <v>0</v>
-      </c>
+      <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
         <v>75</v>
       </c>
@@ -3122,9 +2994,7 @@
       <c r="F64" s="7">
         <v>3.125E-2</v>
       </c>
-      <c r="G64" s="1">
-        <v>0</v>
-      </c>
+      <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
         <v>107</v>
       </c>
@@ -3166,9 +3036,7 @@
       <c r="F66" s="7">
         <v>0.22916666666666666</v>
       </c>
-      <c r="G66" s="1">
-        <v>0</v>
-      </c>
+      <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
         <v>108</v>
       </c>
@@ -3192,9 +3060,7 @@
       <c r="F67" s="26">
         <v>0.25</v>
       </c>
-      <c r="G67" s="25">
-        <v>0</v>
-      </c>
+      <c r="G67" s="25"/>
       <c r="H67" s="25" t="s">
         <v>58</v>
       </c>
@@ -3220,9 +3086,7 @@
       <c r="F68" s="26">
         <v>0.25694444444444448</v>
       </c>
-      <c r="G68" s="25">
-        <v>0</v>
-      </c>
+      <c r="G68" s="25"/>
       <c r="H68" s="25" t="s">
         <v>32</v>
       </c>
@@ -3246,9 +3110,7 @@
       <c r="F69" s="7">
         <v>0.28611111111111115</v>
       </c>
-      <c r="G69" s="1">
-        <v>0</v>
-      </c>
+      <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
         <v>109</v>
       </c>
@@ -3272,9 +3134,7 @@
       <c r="F70" s="26">
         <v>0.34027777777777773</v>
       </c>
-      <c r="G70" s="25">
-        <v>0</v>
-      </c>
+      <c r="G70" s="25"/>
       <c r="H70" s="25" t="s">
         <v>75</v>
       </c>
@@ -3300,9 +3160,7 @@
       <c r="F71" s="26">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="G71" s="25">
-        <v>0</v>
-      </c>
+      <c r="G71" s="25"/>
       <c r="H71" s="25" t="s">
         <v>111</v>
       </c>
@@ -3344,9 +3202,7 @@
       <c r="F73" s="7">
         <v>0.22916666666666666</v>
       </c>
-      <c r="G73" s="1">
-        <v>0</v>
-      </c>
+      <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
         <v>113</v>
       </c>
@@ -3370,9 +3226,7 @@
       <c r="F74" s="7">
         <v>0.25347222222222221</v>
       </c>
-      <c r="G74" s="1">
-        <v>0</v>
-      </c>
+      <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
         <v>76</v>
       </c>
@@ -3398,9 +3252,7 @@
       <c r="F75" s="7">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G75" s="1">
-        <v>0</v>
-      </c>
+      <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
         <v>114</v>
       </c>
@@ -3424,9 +3276,7 @@
       <c r="F76" s="7">
         <v>0.43055555555555558</v>
       </c>
-      <c r="G76" s="1">
-        <v>0</v>
-      </c>
+      <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3300,7 @@
       <c r="F77" s="7">
         <v>0.48958333333333331</v>
       </c>
-      <c r="G77" s="1">
-        <v>0</v>
-      </c>
+      <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
         <v>58</v>
       </c>
@@ -3478,9 +3326,7 @@
       <c r="F78" s="7">
         <v>0.52777777777777779</v>
       </c>
-      <c r="G78" s="1">
-        <v>0</v>
-      </c>
+      <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
         <v>115</v>
       </c>
@@ -3506,9 +3352,7 @@
       <c r="F79" s="7">
         <v>0.61458333333333337</v>
       </c>
-      <c r="G79" s="1">
-        <v>0</v>
-      </c>
+      <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
         <v>117</v>
       </c>
@@ -3532,9 +3376,7 @@
       <c r="F80" s="7">
         <v>0.63194444444444442</v>
       </c>
-      <c r="G80" s="1">
-        <v>0</v>
-      </c>
+      <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
         <v>75</v>
       </c>
@@ -3560,9 +3402,7 @@
       <c r="F81" s="7">
         <v>0.67291666666666661</v>
       </c>
-      <c r="G81" s="1">
-        <v>0</v>
-      </c>
+      <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
         <v>118</v>
       </c>
@@ -3588,9 +3428,7 @@
       <c r="F82" s="7">
         <v>0.74861111111111101</v>
       </c>
-      <c r="G82" s="1">
-        <v>0</v>
-      </c>
+      <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
         <v>119</v>
       </c>
@@ -3614,9 +3452,7 @@
       <c r="F83" s="7">
         <v>0.76041666666666663</v>
       </c>
-      <c r="G83" s="1">
-        <v>0</v>
-      </c>
+      <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
         <v>75</v>
       </c>
@@ -3642,9 +3478,7 @@
       <c r="F84" s="7">
         <v>0.77986111111111101</v>
       </c>
-      <c r="G84" s="1">
-        <v>0</v>
-      </c>
+      <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
         <v>55</v>
       </c>
@@ -3670,9 +3504,7 @@
       <c r="F85" s="7">
         <v>1.4583333333333332E-2</v>
       </c>
-      <c r="G85" s="1">
-        <v>0</v>
-      </c>
+      <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
         <v>120</v>
       </c>
@@ -3712,9 +3544,7 @@
       <c r="F87" s="7">
         <v>3.8194444444444441E-2</v>
       </c>
-      <c r="G87" s="1">
-        <v>0</v>
-      </c>
+      <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3738,9 +3568,7 @@
       <c r="F88" s="7">
         <v>8.4027777777777771E-2</v>
       </c>
-      <c r="G88" s="1">
-        <v>0</v>
-      </c>
+      <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
         <v>121</v>
       </c>
@@ -3764,9 +3592,7 @@
       <c r="F89" s="7">
         <v>0.14583333333333334</v>
       </c>
-      <c r="G89" s="1">
-        <v>0</v>
-      </c>
+      <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
         <v>122</v>
       </c>
@@ -3792,9 +3618,7 @@
       <c r="F90" s="7">
         <v>0.21319444444444444</v>
       </c>
-      <c r="G90" s="1">
-        <v>0</v>
-      </c>
+      <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
         <v>127</v>
       </c>
@@ -3846,9 +3670,7 @@
       <c r="F92" s="7">
         <v>0.24652777777777779</v>
       </c>
-      <c r="G92" s="1">
-        <v>0</v>
-      </c>
+      <c r="G92" s="1"/>
       <c r="H92" s="1" t="s">
         <v>58</v>
       </c>
@@ -3872,14 +3694,12 @@
       <c r="F93" s="7">
         <v>0.75347222222222221</v>
       </c>
-      <c r="G93" s="1">
-        <v>0</v>
-      </c>
+      <c r="G93" s="1"/>
       <c r="H93" s="1" t="s">
         <v>128</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>7</v>
@@ -3892,7 +3712,7 @@
       <c r="B94" s="24"/>
       <c r="C94" s="25"/>
       <c r="D94" s="25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E94" s="26">
         <v>0.39583333333333331</v>
@@ -3900,14 +3720,12 @@
       <c r="F94" s="26">
         <v>0.5</v>
       </c>
-      <c r="G94" s="25">
-        <v>0</v>
-      </c>
+      <c r="G94" s="25"/>
       <c r="H94" s="25" t="s">
         <v>107</v>
       </c>
       <c r="I94" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J94" s="25" t="s">
         <v>7</v>
@@ -3928,9 +3746,7 @@
       <c r="F95" s="7">
         <v>0.76458333333333339</v>
       </c>
-      <c r="G95" s="1">
-        <v>0</v>
-      </c>
+      <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
         <v>81</v>
       </c>
@@ -3956,9 +3772,7 @@
       <c r="F96" s="7">
         <v>0.80555555555555547</v>
       </c>
-      <c r="G96" s="1">
-        <v>0</v>
-      </c>
+      <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
         <v>129</v>
       </c>
@@ -3984,9 +3798,7 @@
       <c r="F97" s="7">
         <v>0.81388888888888899</v>
       </c>
-      <c r="G97" s="1">
-        <v>0</v>
-      </c>
+      <c r="G97" s="1"/>
       <c r="H97" s="1" t="s">
         <v>115</v>
       </c>
@@ -4012,9 +3824,7 @@
       <c r="F98" s="7">
         <v>0.92361111111111116</v>
       </c>
-      <c r="G98" s="1">
-        <v>0</v>
-      </c>
+      <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
         <v>130</v>
       </c>
@@ -4038,9 +3848,7 @@
       <c r="F99" s="7">
         <v>0.18888888888888888</v>
       </c>
-      <c r="G99" s="1">
-        <v>0</v>
-      </c>
+      <c r="G99" s="1"/>
       <c r="H99" s="1" t="s">
         <v>131</v>
       </c>
@@ -4080,9 +3888,7 @@
       <c r="F101" s="7">
         <v>0.19930555555555554</v>
       </c>
-      <c r="G101" s="1">
-        <v>0</v>
-      </c>
+      <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
         <v>75</v>
       </c>
@@ -4132,9 +3938,7 @@
       <c r="F103" s="7">
         <v>0.23958333333333334</v>
       </c>
-      <c r="G103" s="1">
-        <v>0</v>
-      </c>
+      <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="4"/>
       <c r="J103" s="1" t="s">
@@ -4154,7 +3958,7 @@
         <v>0.25</v>
       </c>
       <c r="F104" s="7">
-        <v>0.34375</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -4163,169 +3967,227 @@
       <c r="K104" s="10"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="24"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="26">
-        <v>0.34513888888888888</v>
-      </c>
-      <c r="F105" s="26">
-        <v>0.3576388888888889</v>
-      </c>
-      <c r="G105" s="25"/>
-      <c r="H105" s="25"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="25"/>
-      <c r="K105" s="28"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E105" s="7">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F105" s="7">
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K105" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="9"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="E106" s="7">
-        <v>0.36458333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="F106" s="7">
-        <v>0.4375</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
+      <c r="H106" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="I106" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J106" s="1"/>
-      <c r="K106" s="10"/>
+        <v>132</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K106" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" s="9"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="E107" s="7">
-        <v>0.45833333333333331</v>
+        <v>0.80972222222222223</v>
       </c>
       <c r="F107" s="7">
-        <v>0.5</v>
+        <v>0.81388888888888899</v>
       </c>
       <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="J107" s="1"/>
+      <c r="H107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K107" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" s="9"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E108" s="7">
-        <v>0.50763888888888886</v>
+        <v>0.85763888888888884</v>
       </c>
       <c r="F108" s="7">
-        <v>0.52430555555555558</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
+      <c r="H108" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="I108" s="4"/>
-      <c r="J108" s="1"/>
+      <c r="J108" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K108" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" s="9"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="7">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="F109" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I109" s="4"/>
+      <c r="J109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K109" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="19"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="20"/>
+      <c r="K110" s="23"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="8">
+        <v>42745</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E109" s="7">
-        <v>0.52569444444444446</v>
-      </c>
-      <c r="F109" s="7">
-        <v>0.53125</v>
-      </c>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="10"/>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="9"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E110" s="7">
-        <v>0.53263888888888888</v>
-      </c>
-      <c r="F110" s="7">
-        <v>0.56527777777777777</v>
-      </c>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="10"/>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B111" s="9"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E111" s="7">
-        <v>0.61875000000000002</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="F111" s="7">
-        <v>0.62916666666666665</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="4"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="10"/>
+      <c r="J111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K111" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" s="9"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
+      <c r="D112" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E112" s="7">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="F112" s="7">
+        <v>0.22916666666666666</v>
+      </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="10"/>
+      <c r="I112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K112" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" s="9"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
+      <c r="D113" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E113" s="7">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="F113" s="7">
+        <v>0.24652777777777779</v>
+      </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="4"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="10"/>
+      <c r="J113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K113" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" s="9"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
+      <c r="D114" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E114" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F114" s="7">
+        <v>0.34861111111111115</v>
+      </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="4"/>
@@ -4333,32 +4195,50 @@
       <c r="K114" s="10"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B115" s="19"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="22"/>
-      <c r="J115" s="20"/>
-      <c r="K115" s="23"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E115" s="7">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F115" s="7">
+        <v>0.76458333333333339</v>
+      </c>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K115" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B116" s="8">
-        <v>42745</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="B116" s="9"/>
+      <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="E116" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F116" s="7">
+        <v>0.80555555555555547</v>
+      </c>
       <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="4"/>
+      <c r="H116" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="J116" s="1" t="s">
         <v>7</v>
       </c>
@@ -4372,12 +4252,18 @@
       <c r="D117" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
+      <c r="E117" s="7">
+        <v>0.80972222222222223</v>
+      </c>
+      <c r="F117" s="7">
+        <v>0.81388888888888899</v>
+      </c>
       <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
+      <c r="H117" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="I117" s="4" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>7</v>
@@ -4390,12 +4276,18 @@
       <c r="B118" s="9"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="E118" s="7">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="F118" s="7">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
+      <c r="H118" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="I118" s="4"/>
       <c r="J118" s="1" t="s">
         <v>7</v>
@@ -4408,68 +4300,76 @@
       <c r="B119" s="9"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E119" s="7">
-        <v>0.25</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="F119" s="7">
-        <v>0.34861111111111115</v>
+        <v>0.17013888888888887</v>
       </c>
       <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
+      <c r="H119" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="I119" s="4"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="10"/>
+      <c r="J119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K119" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="24"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="25" t="s">
+      <c r="B120" s="19"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="22"/>
+      <c r="J120" s="20"/>
+      <c r="K120" s="23"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B121" s="8">
+        <v>42746</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E120" s="26">
-        <v>0.35069444444444442</v>
-      </c>
-      <c r="F120" s="26">
-        <v>0.35902777777777778</v>
-      </c>
-      <c r="G120" s="25"/>
-      <c r="H120" s="25"/>
-      <c r="I120" s="27"/>
-      <c r="J120" s="25"/>
-      <c r="K120" s="28"/>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B121" s="9"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="E121" s="7">
-        <v>0.38263888888888892</v>
+        <v>0.17013888888888887</v>
       </c>
       <c r="F121" s="7">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="G121" s="1"/>
       <c r="H121" s="1"/>
-      <c r="I121" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J121" s="1"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K121" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B122" s="9"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
+      <c r="D122" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E122" s="7">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="F122" s="7">
+        <v>0.22222222222222221</v>
+      </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="4"/>
@@ -4483,12 +4383,14 @@
         <v>39</v>
       </c>
       <c r="E123" s="7">
-        <v>0.5</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="F123" s="7">
-        <v>0.52430555555555558</v>
-      </c>
-      <c r="G123" s="1"/>
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H123" s="1"/>
       <c r="I123" s="4"/>
       <c r="J123" s="1"/>
@@ -4498,13 +4400,13 @@
       <c r="B124" s="9"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E124" s="7">
-        <v>0.52430555555555558</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="F124" s="7">
-        <v>0.53125</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -4516,13 +4418,13 @@
       <c r="B125" s="9"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E125" s="7">
-        <v>0.625</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="F125" s="7">
-        <v>0.63541666666666663</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -4533,9 +4435,15 @@
     <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" s="9"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
+      <c r="D126" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E126" s="7">
+        <v>0.87013888888888891</v>
+      </c>
+      <c r="F126" s="7">
+        <v>0.95486111111111116</v>
+      </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="4"/>
@@ -4545,9 +4453,15 @@
     <row r="127" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127" s="9"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
+      <c r="D127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="7">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="F127" s="7">
+        <v>0.1875</v>
+      </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="4"/>
@@ -4555,35 +4469,55 @@
       <c r="K127" s="10"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B128" s="9"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="10"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="22"/>
+      <c r="J128" s="20"/>
+      <c r="K128" s="23"/>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B129" s="9"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
+      <c r="B129" s="8">
+        <v>42747</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" s="7">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="F129" s="7">
+        <v>0.19444444444444445</v>
+      </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="4"/>
-      <c r="J129" s="1"/>
-      <c r="K129" s="10"/>
+      <c r="J129" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K129" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" s="9"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
+      <c r="D130" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E130" s="7">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="F130" s="7">
+        <v>0.21875</v>
+      </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="4"/>
@@ -4593,10 +4527,18 @@
     <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" s="9"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="1"/>
+      <c r="D131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131" s="7">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F131" s="7">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H131" s="1"/>
       <c r="I131" s="4"/>
       <c r="J131" s="1"/>
@@ -4605,9 +4547,15 @@
     <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" s="9"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
+      <c r="D132" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E132" s="7">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F132" s="7">
+        <v>0.24652777777777779</v>
+      </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="4"/>
@@ -4617,9 +4565,15 @@
     <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" s="9"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
+      <c r="D133" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E133" s="7">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="F133" s="7">
+        <v>0.76111111111111107</v>
+      </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="4"/>
@@ -4627,35 +4581,53 @@
       <c r="K133" s="10"/>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B134" s="9"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="10"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E134" s="26">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="F134" s="26">
+        <v>0.8125</v>
+      </c>
+      <c r="G134" s="25"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="27"/>
+      <c r="J134" s="25"/>
+      <c r="K134" s="28"/>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B135" s="9"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="10"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E135" s="26">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F135" s="26">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="G135" s="25"/>
+      <c r="H135" s="25"/>
+      <c r="I135" s="27"/>
+      <c r="J135" s="25"/>
+      <c r="K135" s="28"/>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B136" s="9"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
+      <c r="D136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" s="7">
+        <v>0</v>
+      </c>
+      <c r="F136" s="7">
+        <v>0.19097222222222221</v>
+      </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="4"/>
@@ -4663,35 +4635,55 @@
       <c r="K136" s="10"/>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B137" s="9"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="10"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="20"/>
+      <c r="H137" s="20"/>
+      <c r="I137" s="22"/>
+      <c r="J137" s="20"/>
+      <c r="K137" s="23"/>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B138" s="9"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
+      <c r="B138" s="8">
+        <v>42748</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="7">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F138" s="7">
+        <v>0.22916666666666666</v>
+      </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="4"/>
-      <c r="J138" s="1"/>
-      <c r="K138" s="10"/>
+      <c r="J138" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K138" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B139" s="9"/>
       <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
+      <c r="D139" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E139" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="F139" s="7">
+        <v>5.5555555555555558E-3</v>
+      </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="4"/>
@@ -4699,23 +4691,33 @@
       <c r="K139" s="10"/>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B140" s="9"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="4"/>
-      <c r="J140" s="1"/>
-      <c r="K140" s="10"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="20"/>
+      <c r="I140" s="22"/>
+      <c r="J140" s="20"/>
+      <c r="K140" s="23"/>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B141" s="9"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
+      <c r="B141" s="8">
+        <v>42749</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="7">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F141" s="7">
+        <v>0.19097222222222221</v>
+      </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="4"/>
@@ -4723,35 +4725,63 @@
       <c r="K141" s="10"/>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B142" s="9"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
+      <c r="B142" s="24"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="7">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="F142" s="7">
+        <v>0.22222222222222221</v>
+      </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="4"/>
-      <c r="J142" s="1"/>
-      <c r="K142" s="10"/>
+      <c r="J142" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K142" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B143" s="9"/>
       <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="1"/>
+      <c r="D143" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E143" s="7">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="F143" s="7">
+        <v>0.24444444444444446</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H143" s="1"/>
-      <c r="I143" s="4"/>
+      <c r="I143" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="J143" s="1"/>
-      <c r="K143" s="10"/>
+      <c r="K143" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B144" s="9"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
+      <c r="D144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F144" s="7">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="4"/>
@@ -4761,57 +4791,101 @@
     <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" s="9"/>
       <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
+      <c r="D145" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E145" s="7">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="F145" s="7">
+        <v>0.47569444444444442</v>
+      </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
-      <c r="I145" s="4"/>
+      <c r="I145" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J145" s="1"/>
-      <c r="K145" s="10"/>
+      <c r="K145" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" s="9"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
+      <c r="D146" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E146" s="7">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F146" s="7">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
-      <c r="I146" s="4"/>
+      <c r="I146" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="J146" s="1"/>
       <c r="K146" s="10"/>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B147" s="9"/>
       <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
+      <c r="D147" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E147" s="7">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="F147" s="7">
+        <v>0.51736111111111105</v>
+      </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
-      <c r="I147" s="4"/>
+      <c r="I147" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J147" s="1"/>
-      <c r="K147" s="10"/>
+      <c r="K147" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B148" s="9"/>
       <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
+      <c r="D148" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E148" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="F148" s="7">
+        <v>0.63194444444444442</v>
+      </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
-      <c r="I148" s="4"/>
+      <c r="I148" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="J148" s="1"/>
-      <c r="K148" s="10"/>
+      <c r="K148" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B149" s="9"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
+      <c r="D149" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E149" s="7">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="F149" s="7">
+        <v>0.75</v>
+      </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="4"/>
@@ -4821,33 +4895,55 @@
     <row r="150" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B150" s="9"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
+      <c r="D150" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E150" s="7">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="F150" s="7">
+        <v>0.76388888888888884</v>
+      </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
-      <c r="I150" s="4"/>
+      <c r="I150" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="J150" s="1"/>
       <c r="K150" s="10"/>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B151" s="9"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
+      <c r="D151" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E151" s="7">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="F151" s="7">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
-      <c r="I151" s="4"/>
+      <c r="I151" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="J151" s="1"/>
       <c r="K151" s="10"/>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" s="9"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
+      <c r="D152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="F152" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="4"/>
@@ -4855,23 +4951,29 @@
       <c r="K152" s="10"/>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B153" s="9"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="1"/>
-      <c r="K153" s="10"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
+      <c r="I153" s="22"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="23"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B154" s="9"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
+      <c r="D154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" s="7">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="F154" s="7">
+        <v>9.2361111111111116E-2</v>
+      </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="4"/>
@@ -4881,9 +4983,15 @@
     <row r="155" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B155" s="9"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
+      <c r="D155" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E155" s="7">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="F155" s="7">
+        <v>0.19444444444444445</v>
+      </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="4"/>
@@ -4893,9 +5001,15 @@
     <row r="156" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B156" s="9"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
+      <c r="D156" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E156" s="7">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="F156" s="7">
+        <v>0.22222222222222221</v>
+      </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="4"/>
@@ -4905,9 +5019,15 @@
     <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" s="9"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
+      <c r="D157" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E157" s="7">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="F157" s="7">
+        <v>0.20069444444444443</v>
+      </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="4"/>
@@ -4917,9 +5037,15 @@
     <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" s="9"/>
       <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
+      <c r="D158" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E158" s="7">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="F158" s="7">
+        <v>0.20486111111111113</v>
+      </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="4"/>
@@ -4929,8 +5055,12 @@
     <row r="159" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B159" s="9"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="7"/>
+      <c r="D159" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E159" s="7">
+        <v>0.25</v>
+      </c>
       <c r="F159" s="7"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
@@ -8263,154 +8393,53 @@
       <c r="K436" s="10"/>
     </row>
     <row r="437" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B437" s="9"/>
-      <c r="C437" s="1"/>
-      <c r="D437" s="1"/>
-      <c r="E437" s="7"/>
-      <c r="F437" s="7"/>
-      <c r="G437" s="1"/>
-      <c r="H437" s="1"/>
-      <c r="I437" s="4"/>
-      <c r="J437" s="1"/>
-      <c r="K437" s="10"/>
-    </row>
-    <row r="438" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B438" s="9"/>
-      <c r="C438" s="1"/>
-      <c r="D438" s="1"/>
-      <c r="E438" s="7"/>
-      <c r="F438" s="7"/>
-      <c r="G438" s="1"/>
-      <c r="H438" s="1"/>
-      <c r="I438" s="4"/>
-      <c r="J438" s="1"/>
-      <c r="K438" s="10"/>
-    </row>
-    <row r="439" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B439" s="9"/>
-      <c r="C439" s="1"/>
-      <c r="D439" s="1"/>
-      <c r="E439" s="7"/>
-      <c r="F439" s="7"/>
-      <c r="G439" s="1"/>
-      <c r="H439" s="1"/>
-      <c r="I439" s="4"/>
-      <c r="J439" s="1"/>
-      <c r="K439" s="10"/>
-    </row>
-    <row r="440" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B440" s="9"/>
-      <c r="C440" s="1"/>
-      <c r="D440" s="1"/>
-      <c r="E440" s="7"/>
-      <c r="F440" s="7"/>
-      <c r="G440" s="1"/>
-      <c r="H440" s="1"/>
-      <c r="I440" s="4"/>
-      <c r="J440" s="1"/>
-      <c r="K440" s="10"/>
-    </row>
-    <row r="441" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B441" s="9"/>
-      <c r="C441" s="1"/>
-      <c r="D441" s="1"/>
-      <c r="E441" s="7"/>
-      <c r="F441" s="7"/>
-      <c r="G441" s="1"/>
-      <c r="H441" s="1"/>
-      <c r="I441" s="4"/>
-      <c r="J441" s="1"/>
-      <c r="K441" s="10"/>
-    </row>
-    <row r="442" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B442" s="9"/>
-      <c r="C442" s="1"/>
-      <c r="D442" s="1"/>
-      <c r="E442" s="7"/>
-      <c r="F442" s="7"/>
-      <c r="G442" s="1"/>
-      <c r="H442" s="1"/>
-      <c r="I442" s="4"/>
-      <c r="J442" s="1"/>
-      <c r="K442" s="10"/>
-    </row>
-    <row r="443" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B443" s="9"/>
-      <c r="C443" s="1"/>
-      <c r="D443" s="1"/>
-      <c r="E443" s="7"/>
-      <c r="F443" s="7"/>
-      <c r="G443" s="1"/>
-      <c r="H443" s="1"/>
-      <c r="I443" s="4"/>
-      <c r="J443" s="1"/>
-      <c r="K443" s="10"/>
-    </row>
-    <row r="444" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B444" s="9"/>
-      <c r="C444" s="1"/>
-      <c r="D444" s="1"/>
-      <c r="E444" s="7"/>
-      <c r="F444" s="7"/>
-      <c r="G444" s="1"/>
-      <c r="H444" s="1"/>
-      <c r="I444" s="4"/>
-      <c r="J444" s="1"/>
-      <c r="K444" s="10"/>
-    </row>
-    <row r="445" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B445" s="9"/>
-      <c r="C445" s="1"/>
-      <c r="D445" s="1"/>
-      <c r="E445" s="7"/>
-      <c r="F445" s="7"/>
-      <c r="G445" s="1"/>
-      <c r="H445" s="1"/>
-      <c r="I445" s="4"/>
-      <c r="J445" s="1"/>
-      <c r="K445" s="10"/>
-    </row>
-    <row r="446" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B446" s="9"/>
-      <c r="C446" s="1"/>
-      <c r="D446" s="1"/>
-      <c r="E446" s="7"/>
-      <c r="F446" s="7"/>
-      <c r="G446" s="1"/>
-      <c r="H446" s="1"/>
-      <c r="I446" s="4"/>
-      <c r="J446" s="1"/>
-      <c r="K446" s="10"/>
-    </row>
-    <row r="447" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B447" s="9"/>
-      <c r="C447" s="1"/>
-      <c r="D447" s="1"/>
-      <c r="E447" s="7"/>
-      <c r="F447" s="7"/>
-      <c r="G447" s="1"/>
-      <c r="H447" s="1"/>
-      <c r="I447" s="4"/>
-      <c r="J447" s="1"/>
-      <c r="K447" s="10"/>
-    </row>
-    <row r="448" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B448" s="14"/>
-      <c r="C448" s="15"/>
-      <c r="D448" s="15"/>
-      <c r="E448" s="16"/>
-      <c r="F448" s="16"/>
-      <c r="G448" s="15"/>
-      <c r="H448" s="15"/>
-      <c r="I448" s="17"/>
-      <c r="J448" s="15"/>
-      <c r="K448" s="18"/>
+      <c r="B437" s="14"/>
+      <c r="C437" s="15"/>
+      <c r="D437" s="15"/>
+      <c r="E437" s="16"/>
+      <c r="F437" s="16"/>
+      <c r="G437" s="15"/>
+      <c r="H437" s="15"/>
+      <c r="I437" s="17"/>
+      <c r="J437" s="15"/>
+      <c r="K437" s="18"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B128:K128">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{798A951E-A4F7-45A2-AD09-3A9093BD94DE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{798A951E-A4F7-45A2-AD09-3A9093BD94DE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B128:K128</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ahmed\Projects\Web Development\AM-Tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Giza Projects\AM-Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="140">
   <si>
     <t>Date</t>
   </si>
@@ -438,6 +438,15 @@
   </si>
   <si>
     <t>بيض وجبنة</t>
+  </si>
+  <si>
+    <t>LMS</t>
+  </si>
+  <si>
+    <t>Shreif</t>
+  </si>
+  <si>
+    <t>Discussion</t>
   </si>
 </sst>
 </file>
@@ -1430,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5061,7 +5070,9 @@
       <c r="E159" s="7">
         <v>0.25</v>
       </c>
-      <c r="F159" s="7"/>
+      <c r="F159" s="7">
+        <v>0.375</v>
+      </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="4"/>
@@ -5071,9 +5082,15 @@
     <row r="160" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B160" s="9"/>
       <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
+      <c r="D160" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" s="7">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="F160" s="7">
+        <v>0.3888888888888889</v>
+      </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="4"/>
@@ -5083,10 +5100,18 @@
     <row r="161" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B161" s="9"/>
       <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="1"/>
+      <c r="D161" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E161" s="7">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="F161" s="7">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H161" s="1"/>
       <c r="I161" s="4"/>
       <c r="J161" s="1"/>
@@ -5095,9 +5120,15 @@
     <row r="162" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B162" s="9"/>
       <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
+      <c r="D162" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E162" s="7">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="F162" s="7">
+        <v>0.50347222222222221</v>
+      </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="4"/>
@@ -5107,21 +5138,37 @@
     <row r="163" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B163" s="9"/>
       <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
+      <c r="D163" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E163" s="7">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="F163" s="7">
+        <v>0.52430555555555558</v>
+      </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
-      <c r="I163" s="4"/>
+      <c r="I163" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J163" s="1"/>
-      <c r="K163" s="10"/>
+      <c r="K163" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B164" s="9"/>
       <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
+      <c r="D164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" s="7">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="F164" s="7">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="4"/>
@@ -5131,9 +5178,15 @@
     <row r="165" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B165" s="9"/>
       <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
+      <c r="D165" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E165" s="7">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="F165" s="7">
+        <v>0.55555555555555558</v>
+      </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="4"/>
@@ -5143,9 +5196,15 @@
     <row r="166" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B166" s="9"/>
       <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
+      <c r="D166" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E166" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F166" s="7">
+        <v>0.625</v>
+      </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="4"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Giza Projects\AM-Tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ahmed\Projects\Web Development\AM-Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="146">
   <si>
     <t>Date</t>
   </si>
@@ -447,6 +447,24 @@
   </si>
   <si>
     <t>Discussion</t>
+  </si>
+  <si>
+    <t>Back Home</t>
+  </si>
+  <si>
+    <t>High Level Desgin of the NPC</t>
+  </si>
+  <si>
+    <t>NPC Requirements</t>
+  </si>
+  <si>
+    <t>Explaing the LMS Request</t>
+  </si>
+  <si>
+    <t>LMS Compliance</t>
+  </si>
+  <si>
+    <t>ارز وكوسة وبطة</t>
   </si>
 </sst>
 </file>
@@ -1156,8 +1174,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K437" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="B2:K437"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K439" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="B2:K439"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Date" dataDxfId="9"/>
     <tableColumn id="2" name="Day" dataDxfId="8"/>
@@ -1437,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N437"/>
+  <dimension ref="B2:N439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="E180" sqref="E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3637,7 +3655,9 @@
       <c r="J90" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K90" s="10"/>
+      <c r="K90" s="10">
+        <v>6</v>
+      </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="9"/>
@@ -4401,9 +4421,13 @@
         <v>25</v>
       </c>
       <c r="H123" s="1"/>
-      <c r="I123" s="4"/>
+      <c r="I123" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="J123" s="1"/>
-      <c r="K123" s="10"/>
+      <c r="K123" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124" s="9"/>
@@ -4442,34 +4466,38 @@
       <c r="K125" s="10"/>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B126" s="9"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E126" s="7">
-        <v>0.87013888888888891</v>
-      </c>
-      <c r="F126" s="7">
-        <v>0.95486111111111116</v>
-      </c>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="1"/>
-      <c r="K126" s="10"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E126" s="26">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F126" s="26">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="G126" s="25"/>
+      <c r="H126" s="25"/>
+      <c r="I126" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J126" s="25"/>
+      <c r="K126" s="28">
+        <v>7</v>
+      </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127" s="9"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E127" s="7">
-        <v>0.97222222222222221</v>
+        <v>0.87013888888888891</v>
       </c>
       <c r="F127" s="7">
-        <v>0.1875</v>
+        <v>0.95486111111111116</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -4478,76 +4506,74 @@
       <c r="K127" s="10"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B128" s="19"/>
-      <c r="C128" s="20"/>
-      <c r="D128" s="20"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="20"/>
-      <c r="H128" s="20"/>
-      <c r="I128" s="22"/>
-      <c r="J128" s="20"/>
-      <c r="K128" s="23"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="7">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="F128" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="10"/>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B129" s="8">
+      <c r="B129" s="19"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="20"/>
+      <c r="I129" s="22"/>
+      <c r="J129" s="20"/>
+      <c r="K129" s="23"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130" s="8">
         <v>42747</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E129" s="7">
+      <c r="E130" s="7">
         <v>0.19097222222222221</v>
       </c>
-      <c r="F129" s="7">
+      <c r="F130" s="7">
         <v>0.19444444444444445</v>
-      </c>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K129" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B130" s="9"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E130" s="7">
-        <v>0.19791666666666666</v>
-      </c>
-      <c r="F130" s="7">
-        <v>0.21875</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="4"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="10"/>
+      <c r="J130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K130" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" s="9"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E131" s="7">
-        <v>0.22916666666666666</v>
+        <v>0.19791666666666666</v>
       </c>
       <c r="F131" s="7">
-        <v>0.23958333333333334</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>0.21875</v>
+      </c>
+      <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="4"/>
       <c r="J131" s="1"/>
@@ -4557,31 +4583,37 @@
       <c r="B132" s="9"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E132" s="7">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F132" s="7">
         <v>0.23958333333333334</v>
       </c>
-      <c r="F132" s="7">
-        <v>0.24652777777777779</v>
-      </c>
-      <c r="G132" s="1"/>
+      <c r="G132" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H132" s="1"/>
-      <c r="I132" s="4"/>
+      <c r="I132" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="J132" s="1"/>
-      <c r="K132" s="10"/>
+      <c r="K132" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" s="9"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E133" s="7">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F133" s="7">
         <v>0.24652777777777779</v>
-      </c>
-      <c r="F133" s="7">
-        <v>0.76111111111111107</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -4590,22 +4622,22 @@
       <c r="K133" s="10"/>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B134" s="24"/>
-      <c r="C134" s="25"/>
-      <c r="D134" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E134" s="26">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="F134" s="26">
-        <v>0.8125</v>
-      </c>
-      <c r="G134" s="25"/>
-      <c r="H134" s="25"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="25"/>
-      <c r="K134" s="28"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E134" s="7">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="F134" s="7">
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="10"/>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B135" s="24"/>
@@ -4614,10 +4646,10 @@
         <v>52</v>
       </c>
       <c r="E135" s="26">
-        <v>0.88888888888888884</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="F135" s="26">
-        <v>0.49513888888888885</v>
+        <v>0.8125</v>
       </c>
       <c r="G135" s="25"/>
       <c r="H135" s="25"/>
@@ -4626,240 +4658,236 @@
       <c r="K135" s="28"/>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B136" s="9"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1" t="s">
+      <c r="B136" s="24"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E136" s="26">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F136" s="26">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="G136" s="25"/>
+      <c r="H136" s="25"/>
+      <c r="I136" s="27"/>
+      <c r="J136" s="25"/>
+      <c r="K136" s="28"/>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B137" s="9"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E136" s="7">
+      <c r="E137" s="7">
         <v>0</v>
       </c>
-      <c r="F136" s="7">
+      <c r="F137" s="7">
         <v>0.19097222222222221</v>
       </c>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="10"/>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B137" s="19"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="21"/>
-      <c r="F137" s="21"/>
-      <c r="G137" s="20"/>
-      <c r="H137" s="20"/>
-      <c r="I137" s="22"/>
-      <c r="J137" s="20"/>
-      <c r="K137" s="23"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="10"/>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B138" s="8">
+      <c r="B138" s="19"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="20"/>
+      <c r="H138" s="20"/>
+      <c r="I138" s="22"/>
+      <c r="J138" s="20"/>
+      <c r="K138" s="23"/>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139" s="8">
         <v>42748</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E138" s="7">
+      <c r="E139" s="7">
         <v>0.22222222222222221</v>
       </c>
-      <c r="F138" s="7">
+      <c r="F139" s="7">
         <v>0.22916666666666666</v>
-      </c>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="4"/>
-      <c r="J138" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K138" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B139" s="9"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E139" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="F139" s="7">
-        <v>5.5555555555555558E-3</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="4"/>
-      <c r="J139" s="1"/>
-      <c r="K139" s="10"/>
+      <c r="J139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K139" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B140" s="19"/>
-      <c r="C140" s="20"/>
-      <c r="D140" s="20"/>
-      <c r="E140" s="21"/>
-      <c r="F140" s="21"/>
-      <c r="G140" s="20"/>
-      <c r="H140" s="20"/>
-      <c r="I140" s="22"/>
-      <c r="J140" s="20"/>
-      <c r="K140" s="23"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E140" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="F140" s="7">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="10"/>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B141" s="8">
+      <c r="B141" s="19"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
+      <c r="I141" s="22"/>
+      <c r="J141" s="20"/>
+      <c r="K141" s="23"/>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" s="8">
         <v>42749</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E141" s="7">
+      <c r="E142" s="7">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="F141" s="7">
+      <c r="F142" s="7">
         <v>0.19097222222222221</v>
-      </c>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="1"/>
-      <c r="K141" s="10"/>
-    </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B142" s="24"/>
-      <c r="C142" s="25"/>
-      <c r="D142" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E142" s="7">
-        <v>0.21527777777777779</v>
-      </c>
-      <c r="F142" s="7">
-        <v>0.22222222222222221</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="4"/>
-      <c r="J142" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K142" s="10">
+      <c r="J142" s="1"/>
+      <c r="K142" s="10"/>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B143" s="24"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" s="7">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="F143" s="7">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K143" s="10">
         <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B143" s="9"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E143" s="7">
-        <v>0.23263888888888887</v>
-      </c>
-      <c r="F143" s="7">
-        <v>0.24444444444444446</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H143" s="1"/>
-      <c r="I143" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J143" s="1"/>
-      <c r="K143" s="10">
-        <v>4</v>
       </c>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B144" s="9"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E144" s="7">
-        <v>0.25</v>
+        <v>0.23263888888888887</v>
       </c>
       <c r="F144" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G144" s="1"/>
+        <v>0.24444444444444446</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H144" s="1"/>
-      <c r="I144" s="4"/>
+      <c r="I144" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="J144" s="1"/>
-      <c r="K144" s="10"/>
+      <c r="K144" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" s="9"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E145" s="7">
-        <v>0.46527777777777773</v>
+        <v>0.25</v>
       </c>
       <c r="F145" s="7">
-        <v>0.47569444444444442</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
-      <c r="I145" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="I145" s="4"/>
       <c r="J145" s="1"/>
-      <c r="K145" s="10">
-        <v>4</v>
-      </c>
+      <c r="K145" s="10"/>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" s="9"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E146" s="7">
-        <v>0.47916666666666669</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="F146" s="7">
-        <v>0.51041666666666663</v>
+        <v>0.47569444444444442</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="4" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="J146" s="1"/>
-      <c r="K146" s="10"/>
+      <c r="K146" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B147" s="9"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E147" s="7">
-        <v>0.51388888888888895</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="F147" s="7">
-        <v>0.51736111111111105</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="4" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="J147" s="1"/>
-      <c r="K147" s="10">
-        <v>4</v>
-      </c>
+      <c r="K147" s="10"/>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B148" s="9"/>
@@ -4868,15 +4896,15 @@
         <v>39</v>
       </c>
       <c r="E148" s="7">
-        <v>0.625</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="F148" s="7">
-        <v>0.63194444444444442</v>
+        <v>0.51736111111111105</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J148" s="1"/>
       <c r="K148" s="10">
@@ -4887,37 +4915,39 @@
       <c r="B149" s="9"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E149" s="7">
-        <v>0.67361111111111116</v>
+        <v>0.625</v>
       </c>
       <c r="F149" s="7">
-        <v>0.75</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
-      <c r="I149" s="4"/>
+      <c r="I149" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="J149" s="1"/>
-      <c r="K149" s="10"/>
+      <c r="K149" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B150" s="9"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E150" s="7">
-        <v>0.75694444444444453</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="F150" s="7">
-        <v>0.76388888888888884</v>
+        <v>0.75</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
-      <c r="I150" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="I150" s="4"/>
       <c r="J150" s="1"/>
       <c r="K150" s="10"/>
     </row>
@@ -4928,78 +4958,88 @@
         <v>39</v>
       </c>
       <c r="E151" s="7">
-        <v>0.78819444444444453</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="F151" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="J151" s="1"/>
-      <c r="K151" s="10"/>
+      <c r="K151" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" s="9"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E152" s="7">
-        <v>0.8125</v>
+        <v>0.78819444444444453</v>
       </c>
       <c r="F152" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
-      <c r="I152" s="4"/>
+      <c r="I152" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="J152" s="1"/>
-      <c r="K152" s="10"/>
+      <c r="K152" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B153" s="19"/>
-      <c r="C153" s="20"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="21"/>
-      <c r="F153" s="21"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="22"/>
-      <c r="J153" s="20"/>
-      <c r="K153" s="23"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="F153" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="10"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B154" s="9"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1" t="s">
+      <c r="B154" s="19"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="22"/>
+      <c r="J154" s="20"/>
+      <c r="K154" s="23"/>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B155" s="8">
+        <v>42750</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E154" s="7">
+      <c r="E155" s="7">
         <v>8.6805555555555566E-2</v>
       </c>
-      <c r="F154" s="7">
+      <c r="F155" s="7">
         <v>9.2361111111111116E-2</v>
-      </c>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="4"/>
-      <c r="J154" s="1"/>
-      <c r="K154" s="10"/>
-    </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B155" s="9"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E155" s="7">
-        <v>9.7222222222222224E-2</v>
-      </c>
-      <c r="F155" s="7">
-        <v>0.19444444444444445</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -5011,13 +5051,13 @@
       <c r="B156" s="9"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E156" s="7">
-        <v>0.19791666666666666</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="F156" s="7">
-        <v>0.22222222222222221</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
@@ -5029,17 +5069,19 @@
       <c r="B157" s="9"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E157" s="7">
-        <v>0.19097222222222221</v>
+        <v>0.19791666666666666</v>
       </c>
       <c r="F157" s="7">
-        <v>0.20069444444444443</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
-      <c r="I157" s="4"/>
+      <c r="I157" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="J157" s="1"/>
       <c r="K157" s="10"/>
     </row>
@@ -5047,31 +5089,35 @@
       <c r="B158" s="9"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E158" s="7">
-        <v>0.20138888888888887</v>
+        <v>0.23263888888888887</v>
       </c>
       <c r="F158" s="7">
-        <v>0.20486111111111113</v>
+        <v>0.24236111111111111</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
-      <c r="I158" s="4"/>
+      <c r="I158" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="J158" s="1"/>
-      <c r="K158" s="10"/>
+      <c r="K158" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B159" s="9"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E159" s="7">
-        <v>0.25</v>
+        <v>0.24305555555555555</v>
       </c>
       <c r="F159" s="7">
-        <v>0.375</v>
+        <v>0.24652777777777779</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
@@ -5083,13 +5129,13 @@
       <c r="B160" s="9"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E160" s="7">
-        <v>0.38194444444444442</v>
+        <v>0.25</v>
       </c>
       <c r="F160" s="7">
-        <v>0.3888888888888889</v>
+        <v>0.375</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
@@ -5101,17 +5147,15 @@
       <c r="B161" s="9"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="E161" s="7">
-        <v>0.41319444444444442</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="F161" s="7">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="4"/>
       <c r="J161" s="1"/>
@@ -5121,17 +5165,21 @@
       <c r="B162" s="9"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E162" s="7">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="F162" s="7">
         <v>0.46180555555555558</v>
       </c>
-      <c r="F162" s="7">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="G162" s="1"/>
+      <c r="G162" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H162" s="1"/>
-      <c r="I162" s="4"/>
+      <c r="I162" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="J162" s="1"/>
       <c r="K162" s="10"/>
     </row>
@@ -5139,53 +5187,55 @@
       <c r="B163" s="9"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="E163" s="7">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="F163" s="7">
         <v>0.50347222222222221</v>
-      </c>
-      <c r="F163" s="7">
-        <v>0.52430555555555558</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="4" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="J163" s="1"/>
-      <c r="K163" s="10">
-        <v>10</v>
-      </c>
+      <c r="K163" s="10"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B164" s="9"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E164" s="7">
-        <v>0.53402777777777777</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="F164" s="7">
-        <v>0.54166666666666663</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
-      <c r="I164" s="4"/>
+      <c r="I164" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J164" s="1"/>
-      <c r="K164" s="10"/>
+      <c r="K164" s="10">
+        <v>10</v>
+      </c>
     </row>
     <row r="165" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B165" s="9"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E165" s="7">
-        <v>0.54861111111111105</v>
+        <v>0.53402777777777777</v>
       </c>
       <c r="F165" s="7">
-        <v>0.55555555555555558</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -5197,50 +5247,76 @@
       <c r="B166" s="9"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="E166" s="7">
-        <v>0.58333333333333337</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="F166" s="7">
-        <v>0.625</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
-      <c r="I166" s="4"/>
+      <c r="I166" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="J166" s="1"/>
       <c r="K166" s="10"/>
     </row>
     <row r="167" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B167" s="9"/>
       <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
+      <c r="D167" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E167" s="7">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F167" s="7">
+        <v>0.625</v>
+      </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
-      <c r="I167" s="4"/>
+      <c r="I167" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="J167" s="1"/>
       <c r="K167" s="10"/>
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B168" s="9"/>
       <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
+      <c r="D168" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E168" s="7">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="F168" s="7">
+        <v>0.63541666666666663</v>
+      </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
-      <c r="I168" s="4"/>
+      <c r="I168" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="J168" s="1"/>
-      <c r="K168" s="10"/>
+      <c r="K168" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="169" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B169" s="9"/>
       <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
+      <c r="D169" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E169" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F169" s="7">
+        <v>0.76736111111111116</v>
+      </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="4"/>
@@ -5250,45 +5326,79 @@
     <row r="170" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B170" s="9"/>
       <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
+      <c r="D170" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E170" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F170" s="7">
+        <v>0.77430555555555547</v>
+      </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
-      <c r="I170" s="4"/>
+      <c r="I170" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="J170" s="1"/>
-      <c r="K170" s="10"/>
+      <c r="K170" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="171" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B171" s="9"/>
       <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
+      <c r="D171" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E171" s="7">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="F171" s="7">
+        <v>0.78819444444444453</v>
+      </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
-      <c r="I171" s="4"/>
+      <c r="I171" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="J171" s="1"/>
-      <c r="K171" s="10"/>
+      <c r="K171" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B172" s="9"/>
       <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
+      <c r="D172" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E172" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F172" s="7">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
-      <c r="I172" s="4"/>
+      <c r="I172" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="J172" s="1"/>
       <c r="K172" s="10"/>
     </row>
     <row r="173" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B173" s="9"/>
       <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
+      <c r="D173" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E173" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F173" s="7">
+        <v>0.93611111111111101</v>
+      </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="4"/>
@@ -5298,9 +5408,15 @@
     <row r="174" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B174" s="9"/>
       <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="7"/>
-      <c r="F174" s="7"/>
+      <c r="D174" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" s="7">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="F174" s="7">
+        <v>0.1875</v>
+      </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="4"/>
@@ -5308,23 +5424,33 @@
       <c r="K174" s="10"/>
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B175" s="9"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="1"/>
-      <c r="K175" s="10"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="21"/>
+      <c r="F175" s="21"/>
+      <c r="G175" s="20"/>
+      <c r="H175" s="20"/>
+      <c r="I175" s="22"/>
+      <c r="J175" s="20"/>
+      <c r="K175" s="23"/>
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B176" s="9"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="7"/>
-      <c r="F176" s="7"/>
+      <c r="B176" s="8">
+        <v>42751</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" s="7">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="F176" s="7">
+        <v>0.19791666666666666</v>
+      </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="4"/>
@@ -5334,21 +5460,37 @@
     <row r="177" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B177" s="9"/>
       <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="7"/>
-      <c r="F177" s="7"/>
+      <c r="D177" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E177" s="7">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F177" s="7">
+        <v>0.24027777777777778</v>
+      </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
-      <c r="I177" s="4"/>
+      <c r="I177" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="J177" s="1"/>
-      <c r="K177" s="10"/>
+      <c r="K177" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B178" s="9"/>
       <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="7"/>
-      <c r="F178" s="7"/>
+      <c r="D178" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E178" s="7">
+        <v>0.24027777777777778</v>
+      </c>
+      <c r="F178" s="7">
+        <v>0.25</v>
+      </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="4"/>
@@ -5358,8 +5500,12 @@
     <row r="179" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B179" s="9"/>
       <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="7"/>
+      <c r="D179" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E179" s="7">
+        <v>0.25</v>
+      </c>
       <c r="F179" s="7"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
@@ -5370,7 +5516,9 @@
     <row r="180" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B180" s="9"/>
       <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
+      <c r="D180" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
       <c r="G180" s="1"/>
@@ -8452,19 +8600,43 @@
       <c r="K436" s="10"/>
     </row>
     <row r="437" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B437" s="14"/>
-      <c r="C437" s="15"/>
-      <c r="D437" s="15"/>
-      <c r="E437" s="16"/>
-      <c r="F437" s="16"/>
-      <c r="G437" s="15"/>
-      <c r="H437" s="15"/>
-      <c r="I437" s="17"/>
-      <c r="J437" s="15"/>
-      <c r="K437" s="18"/>
+      <c r="B437" s="9"/>
+      <c r="C437" s="1"/>
+      <c r="D437" s="1"/>
+      <c r="E437" s="7"/>
+      <c r="F437" s="7"/>
+      <c r="G437" s="1"/>
+      <c r="H437" s="1"/>
+      <c r="I437" s="4"/>
+      <c r="J437" s="1"/>
+      <c r="K437" s="10"/>
+    </row>
+    <row r="438" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B438" s="9"/>
+      <c r="C438" s="1"/>
+      <c r="D438" s="1"/>
+      <c r="E438" s="7"/>
+      <c r="F438" s="7"/>
+      <c r="G438" s="1"/>
+      <c r="H438" s="1"/>
+      <c r="I438" s="4"/>
+      <c r="J438" s="1"/>
+      <c r="K438" s="10"/>
+    </row>
+    <row r="439" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B439" s="14"/>
+      <c r="C439" s="15"/>
+      <c r="D439" s="15"/>
+      <c r="E439" s="16"/>
+      <c r="F439" s="16"/>
+      <c r="G439" s="15"/>
+      <c r="H439" s="15"/>
+      <c r="I439" s="17"/>
+      <c r="J439" s="15"/>
+      <c r="K439" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B128:K128">
+  <conditionalFormatting sqref="B129:K129">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -8495,7 +8667,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B128:K128</xm:sqref>
+          <xm:sqref>B129:K129</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ahmed\Projects\Web Development\AM-Tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Giza Projects\AM-Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="147">
   <si>
     <t>Date</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>ارز وكوسة وبطة</t>
+  </si>
+  <si>
+    <t>Professional Java for Web Applications</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1461,7 @@
   <dimension ref="B2:N439"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="E180" sqref="E180"/>
+      <selection activeCell="I181" sqref="I181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5506,7 +5509,9 @@
       <c r="E179" s="7">
         <v>0.25</v>
       </c>
-      <c r="F179" s="7"/>
+      <c r="F179" s="7">
+        <v>0.34375</v>
+      </c>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="4"/>
@@ -5519,8 +5524,12 @@
       <c r="D180" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E180" s="7"/>
-      <c r="F180" s="7"/>
+      <c r="E180" s="7">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="F180" s="7">
+        <v>0.23263888888888887</v>
+      </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="4"/>
@@ -5530,12 +5539,18 @@
     <row r="181" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B181" s="9"/>
       <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="7"/>
+      <c r="D181" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E181" s="7">
+        <v>0.43194444444444446</v>
+      </c>
       <c r="F181" s="7"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
-      <c r="I181" s="4"/>
+      <c r="I181" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="J181" s="1"/>
       <c r="K181" s="10"/>
     </row>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Giza Projects\AM-Tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ahmed\Projects\Web Development\AM-Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="154">
   <si>
     <t>Date</t>
   </si>
@@ -468,6 +468,27 @@
   </si>
   <si>
     <t>Professional Java for Web Applications</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Me and Elewa disscussing NPC Requirements</t>
+  </si>
+  <si>
+    <t>Yasser disscussing how to review</t>
+  </si>
+  <si>
+    <t>Me, Elewa and Nessreen disscussing NPC Requirements</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Shower</t>
   </si>
 </sst>
 </file>
@@ -1177,8 +1198,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K439" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="B2:K439"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K449" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="B2:K449"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Date" dataDxfId="9"/>
     <tableColumn id="2" name="Day" dataDxfId="8"/>
@@ -1458,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N439"/>
+  <dimension ref="B2:N449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="I181" sqref="I181"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="D201" sqref="D201:F201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5540,12 +5561,14 @@
       <c r="B181" s="9"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="E181" s="7">
         <v>0.43194444444444446</v>
       </c>
-      <c r="F181" s="7"/>
+      <c r="F181" s="7">
+        <v>0.46875</v>
+      </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="4" t="s">
@@ -5557,9 +5580,15 @@
     <row r="182" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B182" s="9"/>
       <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="7"/>
-      <c r="F182" s="7"/>
+      <c r="D182" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E182" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="F182" s="7">
+        <v>0.50347222222222221</v>
+      </c>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="4"/>
@@ -5569,9 +5598,15 @@
     <row r="183" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B183" s="9"/>
       <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="7"/>
-      <c r="F183" s="7"/>
+      <c r="D183" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E183" s="7">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="F183" s="7">
+        <v>0.52430555555555558</v>
+      </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="4"/>
@@ -5581,9 +5616,15 @@
     <row r="184" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B184" s="9"/>
       <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="7"/>
-      <c r="F184" s="7"/>
+      <c r="D184" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184" s="7">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F184" s="7">
+        <v>0.53472222222222221</v>
+      </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="4"/>
@@ -5593,33 +5634,55 @@
     <row r="185" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B185" s="9"/>
       <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
+      <c r="D185" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E185" s="7">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="F185" s="7">
+        <v>0.59722222222222221</v>
+      </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
-      <c r="I185" s="4"/>
+      <c r="I185" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="J185" s="1"/>
       <c r="K185" s="10"/>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B186" s="9"/>
       <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="7"/>
-      <c r="F186" s="7"/>
+      <c r="D186" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E186" s="7">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F186" s="7">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
-      <c r="I186" s="4"/>
+      <c r="I186" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="J186" s="1"/>
       <c r="K186" s="10"/>
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B187" s="9"/>
       <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="7"/>
-      <c r="F187" s="7"/>
+      <c r="D187" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E187" s="7">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="F187" s="7">
+        <v>0.63888888888888895</v>
+      </c>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="4"/>
@@ -5629,21 +5692,35 @@
     <row r="188" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B188" s="9"/>
       <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="7"/>
-      <c r="F188" s="7"/>
+      <c r="D188" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E188" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="F188" s="7">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
-      <c r="I188" s="4"/>
+      <c r="I188" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="J188" s="1"/>
       <c r="K188" s="10"/>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B189" s="9"/>
       <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="7"/>
-      <c r="F189" s="7"/>
+      <c r="D189" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E189" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F189" s="7">
+        <v>0.76736111111111116</v>
+      </c>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="4"/>
@@ -5653,45 +5730,79 @@
     <row r="190" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B190" s="9"/>
       <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="7"/>
-      <c r="F190" s="7"/>
+      <c r="D190" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E190" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F190" s="7">
+        <v>0.77430555555555547</v>
+      </c>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
-      <c r="I190" s="4"/>
+      <c r="I190" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="J190" s="1"/>
-      <c r="K190" s="10"/>
+      <c r="K190" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B191" s="9"/>
       <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="7"/>
-      <c r="F191" s="7"/>
+      <c r="D191" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E191" s="7">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="F191" s="7">
+        <v>0.78819444444444453</v>
+      </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
-      <c r="I191" s="4"/>
+      <c r="I191" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="J191" s="1"/>
-      <c r="K191" s="10"/>
+      <c r="K191" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B192" s="9"/>
       <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="7"/>
-      <c r="F192" s="7"/>
+      <c r="D192" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E192" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F192" s="7">
+        <v>0.8125</v>
+      </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
-      <c r="I192" s="4"/>
+      <c r="I192" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="J192" s="1"/>
       <c r="K192" s="10"/>
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B193" s="9"/>
       <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="7"/>
-      <c r="F193" s="7"/>
+      <c r="D193" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E193" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F193" s="7">
+        <v>0.93611111111111101</v>
+      </c>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="4"/>
@@ -5701,9 +5812,15 @@
     <row r="194" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B194" s="9"/>
       <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="7"/>
-      <c r="F194" s="7"/>
+      <c r="D194" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" s="7">
+        <v>0.93611111111111101</v>
+      </c>
+      <c r="F194" s="7">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="4"/>
@@ -5711,23 +5828,33 @@
       <c r="K194" s="10"/>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B195" s="9"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="7"/>
-      <c r="F195" s="7"/>
-      <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
-      <c r="I195" s="4"/>
-      <c r="J195" s="1"/>
-      <c r="K195" s="10"/>
+      <c r="B195" s="19"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="21"/>
+      <c r="F195" s="21"/>
+      <c r="G195" s="20"/>
+      <c r="H195" s="20"/>
+      <c r="I195" s="22"/>
+      <c r="J195" s="20"/>
+      <c r="K195" s="23"/>
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B196" s="9"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="7"/>
-      <c r="F196" s="7"/>
+      <c r="B196" s="8">
+        <v>42751</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" s="7">
+        <v>0.14930555555555555</v>
+      </c>
+      <c r="F196" s="7">
+        <v>0.15625</v>
+      </c>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="4"/>
@@ -5737,9 +5864,15 @@
     <row r="197" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B197" s="9"/>
       <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="7"/>
-      <c r="F197" s="7"/>
+      <c r="D197" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E197" s="7">
+        <v>0.21180555555555555</v>
+      </c>
+      <c r="F197" s="7">
+        <v>0.22916666666666666</v>
+      </c>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="4"/>
@@ -5749,9 +5882,15 @@
     <row r="198" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B198" s="9"/>
       <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="7"/>
-      <c r="F198" s="7"/>
+      <c r="D198" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E198" s="7">
+        <v>0.23750000000000002</v>
+      </c>
+      <c r="F198" s="7">
+        <v>0.24374999999999999</v>
+      </c>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="4"/>
@@ -5761,9 +5900,15 @@
     <row r="199" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B199" s="9"/>
       <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="7"/>
-      <c r="F199" s="7"/>
+      <c r="D199" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E199" s="7">
+        <v>0.24374999999999999</v>
+      </c>
+      <c r="F199" s="7">
+        <v>0.24791666666666667</v>
+      </c>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="4"/>
@@ -5773,8 +5918,12 @@
     <row r="200" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B200" s="9"/>
       <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="7"/>
+      <c r="D200" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E200" s="7">
+        <v>0.25</v>
+      </c>
       <c r="F200" s="7"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
@@ -5785,9 +5934,15 @@
     <row r="201" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B201" s="9"/>
       <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="7"/>
-      <c r="F201" s="7"/>
+      <c r="D201" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E201" s="7">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="F201" s="7">
+        <v>0.23263888888888887</v>
+      </c>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="4"/>
@@ -8639,16 +8794,136 @@
       <c r="K438" s="10"/>
     </row>
     <row r="439" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B439" s="14"/>
-      <c r="C439" s="15"/>
-      <c r="D439" s="15"/>
-      <c r="E439" s="16"/>
-      <c r="F439" s="16"/>
-      <c r="G439" s="15"/>
-      <c r="H439" s="15"/>
-      <c r="I439" s="17"/>
-      <c r="J439" s="15"/>
-      <c r="K439" s="18"/>
+      <c r="B439" s="9"/>
+      <c r="C439" s="1"/>
+      <c r="D439" s="1"/>
+      <c r="E439" s="7"/>
+      <c r="F439" s="7"/>
+      <c r="G439" s="1"/>
+      <c r="H439" s="1"/>
+      <c r="I439" s="4"/>
+      <c r="J439" s="1"/>
+      <c r="K439" s="10"/>
+    </row>
+    <row r="440" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B440" s="9"/>
+      <c r="C440" s="1"/>
+      <c r="D440" s="1"/>
+      <c r="E440" s="7"/>
+      <c r="F440" s="7"/>
+      <c r="G440" s="1"/>
+      <c r="H440" s="1"/>
+      <c r="I440" s="4"/>
+      <c r="J440" s="1"/>
+      <c r="K440" s="10"/>
+    </row>
+    <row r="441" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B441" s="9"/>
+      <c r="C441" s="1"/>
+      <c r="D441" s="1"/>
+      <c r="E441" s="7"/>
+      <c r="F441" s="7"/>
+      <c r="G441" s="1"/>
+      <c r="H441" s="1"/>
+      <c r="I441" s="4"/>
+      <c r="J441" s="1"/>
+      <c r="K441" s="10"/>
+    </row>
+    <row r="442" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B442" s="9"/>
+      <c r="C442" s="1"/>
+      <c r="D442" s="1"/>
+      <c r="E442" s="7"/>
+      <c r="F442" s="7"/>
+      <c r="G442" s="1"/>
+      <c r="H442" s="1"/>
+      <c r="I442" s="4"/>
+      <c r="J442" s="1"/>
+      <c r="K442" s="10"/>
+    </row>
+    <row r="443" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B443" s="9"/>
+      <c r="C443" s="1"/>
+      <c r="D443" s="1"/>
+      <c r="E443" s="7"/>
+      <c r="F443" s="7"/>
+      <c r="G443" s="1"/>
+      <c r="H443" s="1"/>
+      <c r="I443" s="4"/>
+      <c r="J443" s="1"/>
+      <c r="K443" s="10"/>
+    </row>
+    <row r="444" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B444" s="9"/>
+      <c r="C444" s="1"/>
+      <c r="D444" s="1"/>
+      <c r="E444" s="7"/>
+      <c r="F444" s="7"/>
+      <c r="G444" s="1"/>
+      <c r="H444" s="1"/>
+      <c r="I444" s="4"/>
+      <c r="J444" s="1"/>
+      <c r="K444" s="10"/>
+    </row>
+    <row r="445" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B445" s="9"/>
+      <c r="C445" s="1"/>
+      <c r="D445" s="1"/>
+      <c r="E445" s="7"/>
+      <c r="F445" s="7"/>
+      <c r="G445" s="1"/>
+      <c r="H445" s="1"/>
+      <c r="I445" s="4"/>
+      <c r="J445" s="1"/>
+      <c r="K445" s="10"/>
+    </row>
+    <row r="446" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B446" s="9"/>
+      <c r="C446" s="1"/>
+      <c r="D446" s="1"/>
+      <c r="E446" s="7"/>
+      <c r="F446" s="7"/>
+      <c r="G446" s="1"/>
+      <c r="H446" s="1"/>
+      <c r="I446" s="4"/>
+      <c r="J446" s="1"/>
+      <c r="K446" s="10"/>
+    </row>
+    <row r="447" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B447" s="9"/>
+      <c r="C447" s="1"/>
+      <c r="D447" s="1"/>
+      <c r="E447" s="7"/>
+      <c r="F447" s="7"/>
+      <c r="G447" s="1"/>
+      <c r="H447" s="1"/>
+      <c r="I447" s="4"/>
+      <c r="J447" s="1"/>
+      <c r="K447" s="10"/>
+    </row>
+    <row r="448" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B448" s="9"/>
+      <c r="C448" s="1"/>
+      <c r="D448" s="1"/>
+      <c r="E448" s="7"/>
+      <c r="F448" s="7"/>
+      <c r="G448" s="1"/>
+      <c r="H448" s="1"/>
+      <c r="I448" s="4"/>
+      <c r="J448" s="1"/>
+      <c r="K448" s="10"/>
+    </row>
+    <row r="449" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B449" s="14"/>
+      <c r="C449" s="15"/>
+      <c r="D449" s="15"/>
+      <c r="E449" s="16"/>
+      <c r="F449" s="16"/>
+      <c r="G449" s="15"/>
+      <c r="H449" s="15"/>
+      <c r="I449" s="17"/>
+      <c r="J449" s="15"/>
+      <c r="K449" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B129:K129">

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ahmed\Projects\Web Development\AM-Tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Giza Projects\AM-Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="155">
   <si>
     <t>Date</t>
   </si>
@@ -489,6 +489,9 @@
   </si>
   <si>
     <t>Shower</t>
+  </si>
+  <si>
+    <t>Shrief</t>
   </si>
 </sst>
 </file>
@@ -1481,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="D201" sqref="D201:F201"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="A210" sqref="A210:XFD214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5924,7 +5927,9 @@
       <c r="E200" s="7">
         <v>0.25</v>
       </c>
-      <c r="F200" s="7"/>
+      <c r="F200" s="7">
+        <v>0.34583333333333338</v>
+      </c>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="4"/>
@@ -5938,10 +5943,10 @@
         <v>12</v>
       </c>
       <c r="E201" s="7">
-        <v>0.35069444444444442</v>
+        <v>0.3576388888888889</v>
       </c>
       <c r="F201" s="7">
-        <v>0.23263888888888887</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
@@ -5952,9 +5957,15 @@
     <row r="202" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B202" s="9"/>
       <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="7"/>
-      <c r="F202" s="7"/>
+      <c r="D202" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E202" s="7">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="F202" s="7">
+        <v>0.38958333333333334</v>
+      </c>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="4"/>
@@ -5964,9 +5975,15 @@
     <row r="203" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B203" s="9"/>
       <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="7"/>
-      <c r="F203" s="7"/>
+      <c r="D203" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E203" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F203" s="7">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="4"/>
@@ -5976,21 +5993,35 @@
     <row r="204" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B204" s="9"/>
       <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="7"/>
-      <c r="F204" s="7"/>
+      <c r="D204" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E204" s="7">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="F204" s="7">
+        <v>0.52430555555555558</v>
+      </c>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="4"/>
       <c r="J204" s="1"/>
-      <c r="K204" s="10"/>
+      <c r="K204" s="10">
+        <v>6</v>
+      </c>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B205" s="9"/>
       <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="7"/>
-      <c r="F205" s="7"/>
+      <c r="D205" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" s="7">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="F205" s="7">
+        <v>0.53125</v>
+      </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="4"/>
@@ -6000,10 +6031,18 @@
     <row r="206" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B206" s="9"/>
       <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="7"/>
-      <c r="F206" s="7"/>
-      <c r="G206" s="1"/>
+      <c r="D206" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E206" s="7">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="F206" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H206" s="1"/>
       <c r="I206" s="4"/>
       <c r="J206" s="1"/>
@@ -6012,21 +6051,35 @@
     <row r="207" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B207" s="9"/>
       <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="7"/>
-      <c r="F207" s="7"/>
+      <c r="D207" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E207" s="7">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="F207" s="7">
+        <v>0.63888888888888895</v>
+      </c>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="4"/>
       <c r="J207" s="1"/>
-      <c r="K207" s="10"/>
+      <c r="K207" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B208" s="9"/>
       <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="7"/>
-      <c r="F208" s="7"/>
+      <c r="D208" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E208" s="7">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="F208" s="7">
+        <v>0.66319444444444442</v>
+      </c>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="4"/>
@@ -6036,8 +6089,12 @@
     <row r="209" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B209" s="9"/>
       <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="7"/>
+      <c r="D209" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E209" s="7">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F209" s="7"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
@@ -6048,45 +6105,79 @@
     <row r="210" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B210" s="9"/>
       <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="7"/>
-      <c r="F210" s="7"/>
+      <c r="D210" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E210" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F210" s="7">
+        <v>0.77430555555555547</v>
+      </c>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
-      <c r="I210" s="4"/>
+      <c r="I210" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="J210" s="1"/>
-      <c r="K210" s="10"/>
+      <c r="K210" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B211" s="9"/>
       <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="7"/>
-      <c r="F211" s="7"/>
+      <c r="D211" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E211" s="7">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="F211" s="7">
+        <v>0.78819444444444453</v>
+      </c>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
-      <c r="I211" s="4"/>
+      <c r="I211" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="J211" s="1"/>
-      <c r="K211" s="10"/>
+      <c r="K211" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B212" s="9"/>
       <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="7"/>
-      <c r="F212" s="7"/>
+      <c r="D212" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E212" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F212" s="7">
+        <v>0.8125</v>
+      </c>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
-      <c r="I212" s="4"/>
+      <c r="I212" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="J212" s="1"/>
       <c r="K212" s="10"/>
     </row>
     <row r="213" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B213" s="9"/>
       <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="7"/>
-      <c r="F213" s="7"/>
+      <c r="D213" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E213" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F213" s="7">
+        <v>0.93611111111111101</v>
+      </c>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="4"/>
@@ -6096,9 +6187,15 @@
     <row r="214" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B214" s="9"/>
       <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="7"/>
-      <c r="F214" s="7"/>
+      <c r="D214" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E214" s="7">
+        <v>0.93611111111111101</v>
+      </c>
+      <c r="F214" s="7">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="4"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Giza Projects\AM-Tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ahmed\Projects\Web Development\AM-Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="155">
   <si>
     <t>Date</t>
   </si>
@@ -1201,8 +1201,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K449" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="B2:K449"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K448" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="B2:K448"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Date" dataDxfId="9"/>
     <tableColumn id="2" name="Day" dataDxfId="8"/>
@@ -1482,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N449"/>
+  <dimension ref="B2:N448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="A210" sqref="A210:XFD214"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="E218" sqref="E218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5844,10 +5844,10 @@
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B196" s="8">
-        <v>42751</v>
+        <v>42752</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>12</v>
@@ -6095,7 +6095,9 @@
       <c r="E209" s="7">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F209" s="7"/>
+      <c r="F209" s="7">
+        <v>0.77430555555555547</v>
+      </c>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="4"/>
@@ -6109,60 +6111,56 @@
         <v>39</v>
       </c>
       <c r="E210" s="7">
-        <v>0.77083333333333337</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F210" s="7">
-        <v>0.77430555555555547</v>
+        <v>0.78819444444444453</v>
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="4" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="J210" s="1"/>
       <c r="K210" s="10">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B211" s="9"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="E211" s="7">
-        <v>0.78472222222222221</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="F211" s="7">
-        <v>0.78819444444444453</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="4" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="J211" s="1"/>
-      <c r="K211" s="10">
-        <v>4</v>
-      </c>
+      <c r="K211" s="10"/>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B212" s="9"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="E212" s="7">
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F212" s="7">
-        <v>0.8125</v>
+        <v>0.93611111111111101</v>
       </c>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
-      <c r="I212" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="I212" s="4"/>
       <c r="J212" s="1"/>
       <c r="K212" s="10"/>
     </row>
@@ -6170,13 +6168,13 @@
       <c r="B213" s="9"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E213" s="7">
-        <v>0.83333333333333337</v>
+        <v>0.93611111111111101</v>
       </c>
       <c r="F213" s="7">
-        <v>0.93611111111111101</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
@@ -6185,29 +6183,33 @@
       <c r="K213" s="10"/>
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B214" s="9"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E214" s="7">
-        <v>0.93611111111111101</v>
-      </c>
-      <c r="F214" s="7">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="4"/>
-      <c r="J214" s="1"/>
-      <c r="K214" s="10"/>
+      <c r="B214" s="19"/>
+      <c r="C214" s="20"/>
+      <c r="D214" s="20"/>
+      <c r="E214" s="21"/>
+      <c r="F214" s="21"/>
+      <c r="G214" s="20"/>
+      <c r="H214" s="20"/>
+      <c r="I214" s="22"/>
+      <c r="J214" s="20"/>
+      <c r="K214" s="23"/>
     </row>
     <row r="215" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B215" s="9"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="7"/>
-      <c r="F215" s="7"/>
+      <c r="B215" s="8">
+        <v>42753</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215" s="7">
+        <v>0.17430555555555557</v>
+      </c>
+      <c r="F215" s="7">
+        <v>0.18263888888888891</v>
+      </c>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="4"/>
@@ -6217,10 +6219,18 @@
     <row r="216" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B216" s="9"/>
       <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="7"/>
-      <c r="F216" s="7"/>
-      <c r="G216" s="1"/>
+      <c r="D216" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E216" s="7">
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="F216" s="7">
+        <v>0.2388888888888889</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H216" s="1"/>
       <c r="I216" s="4"/>
       <c r="J216" s="1"/>
@@ -6229,9 +6239,15 @@
     <row r="217" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B217" s="9"/>
       <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="7"/>
-      <c r="F217" s="7"/>
+      <c r="D217" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E217" s="7">
+        <v>0.2388888888888889</v>
+      </c>
+      <c r="F217" s="7">
+        <v>0.24791666666666667</v>
+      </c>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
       <c r="I217" s="4"/>
@@ -6241,9 +6257,15 @@
     <row r="218" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B218" s="9"/>
       <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="7"/>
-      <c r="F218" s="7"/>
+      <c r="D218" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E218" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F218" s="7">
+        <v>0.34583333333333338</v>
+      </c>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
       <c r="I218" s="4"/>
@@ -6253,9 +6275,15 @@
     <row r="219" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B219" s="9"/>
       <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="7"/>
-      <c r="F219" s="7"/>
+      <c r="D219" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E219" s="7">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="F219" s="7">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="4"/>
@@ -8999,28 +9027,16 @@
       <c r="K447" s="10"/>
     </row>
     <row r="448" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B448" s="9"/>
-      <c r="C448" s="1"/>
-      <c r="D448" s="1"/>
-      <c r="E448" s="7"/>
-      <c r="F448" s="7"/>
-      <c r="G448" s="1"/>
-      <c r="H448" s="1"/>
-      <c r="I448" s="4"/>
-      <c r="J448" s="1"/>
-      <c r="K448" s="10"/>
-    </row>
-    <row r="449" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B449" s="14"/>
-      <c r="C449" s="15"/>
-      <c r="D449" s="15"/>
-      <c r="E449" s="16"/>
-      <c r="F449" s="16"/>
-      <c r="G449" s="15"/>
-      <c r="H449" s="15"/>
-      <c r="I449" s="17"/>
-      <c r="J449" s="15"/>
-      <c r="K449" s="18"/>
+      <c r="B448" s="14"/>
+      <c r="C448" s="15"/>
+      <c r="D448" s="15"/>
+      <c r="E448" s="16"/>
+      <c r="F448" s="16"/>
+      <c r="G448" s="15"/>
+      <c r="H448" s="15"/>
+      <c r="I448" s="17"/>
+      <c r="J448" s="15"/>
+      <c r="K448" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B129:K129">

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ahmed\Projects\Web Development\AM-Tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Giza Projects\AM-Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="156">
   <si>
     <t>Date</t>
   </si>
@@ -492,6 +492,9 @@
   </si>
   <si>
     <t>Shrief</t>
+  </si>
+  <si>
+    <t>JMS</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1488,7 @@
   <dimension ref="B2:N448"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="E218" sqref="E218"/>
+      <selection activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6279,10 +6282,10 @@
         <v>12</v>
       </c>
       <c r="E219" s="7">
-        <v>0.3576388888888889</v>
+        <v>0.34722222222222227</v>
       </c>
       <c r="F219" s="7">
-        <v>0.36458333333333331</v>
+        <v>0.3520833333333333</v>
       </c>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
@@ -6293,9 +6296,15 @@
     <row r="220" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B220" s="9"/>
       <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="7"/>
-      <c r="F220" s="7"/>
+      <c r="D220" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E220" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="F220" s="7">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="4"/>
@@ -6305,9 +6314,15 @@
     <row r="221" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B221" s="9"/>
       <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="7"/>
-      <c r="F221" s="7"/>
+      <c r="D221" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E221" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F221" s="7">
+        <v>0.4375</v>
+      </c>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
       <c r="I221" s="4"/>
@@ -6317,9 +6332,15 @@
     <row r="222" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B222" s="9"/>
       <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="7"/>
-      <c r="F222" s="7"/>
+      <c r="D222" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E222" s="7">
+        <v>0.4375</v>
+      </c>
+      <c r="F222" s="7">
+        <v>0.44791666666666669</v>
+      </c>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
       <c r="I222" s="4"/>
@@ -6329,9 +6350,15 @@
     <row r="223" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B223" s="9"/>
       <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="7"/>
-      <c r="F223" s="7"/>
+      <c r="D223" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E223" s="7">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="F223" s="7">
+        <v>0.49652777777777773</v>
+      </c>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
       <c r="I223" s="4"/>
@@ -6342,8 +6369,12 @@
       <c r="B224" s="9"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
-      <c r="E224" s="7"/>
-      <c r="F224" s="7"/>
+      <c r="E224" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F224" s="7">
+        <v>0.52430555555555558</v>
+      </c>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
       <c r="I224" s="4"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Giza Projects\AM-Tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ahmed\Projects\Web Development\AM-Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="160">
   <si>
     <t>Date</t>
   </si>
@@ -495,6 +495,18 @@
   </si>
   <si>
     <t>JMS</t>
+  </si>
+  <si>
+    <t>LMS Demo</t>
+  </si>
+  <si>
+    <t>صلاة الظهر والعصر</t>
+  </si>
+  <si>
+    <t>صلاة الجمعة</t>
+  </si>
+  <si>
+    <t>Java Message Service, 2nd Ed - Chapter 1</t>
   </si>
 </sst>
 </file>
@@ -1204,8 +1216,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K448" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="B2:K448"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K446" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="B2:K446"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Date" dataDxfId="9"/>
     <tableColumn id="2" name="Day" dataDxfId="8"/>
@@ -1485,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N448"/>
+  <dimension ref="B2:N446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="D224" sqref="D224"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="A260" sqref="A260:XFD260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6368,7 +6380,9 @@
     <row r="224" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B224" s="9"/>
       <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
+      <c r="D224" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E224" s="7">
         <v>0.51041666666666663</v>
       </c>
@@ -6384,9 +6398,15 @@
     <row r="225" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B225" s="9"/>
       <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="7"/>
-      <c r="F225" s="7"/>
+      <c r="D225" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E225" s="7">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="F225" s="7">
+        <v>0.54861111111111105</v>
+      </c>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="4"/>
@@ -6396,9 +6416,15 @@
     <row r="226" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B226" s="9"/>
       <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="7"/>
-      <c r="F226" s="7"/>
+      <c r="D226" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E226" s="7">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="F226" s="7">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
       <c r="I226" s="4"/>
@@ -6408,9 +6434,15 @@
     <row r="227" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B227" s="9"/>
       <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="7"/>
-      <c r="F227" s="7"/>
+      <c r="D227" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E227" s="7">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F227" s="7">
+        <v>0.66319444444444442</v>
+      </c>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
       <c r="I227" s="4"/>
@@ -6420,9 +6452,15 @@
     <row r="228" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B228" s="9"/>
       <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="7"/>
-      <c r="F228" s="7"/>
+      <c r="D228" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E228" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F228" s="7">
+        <v>0.77430555555555547</v>
+      </c>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="4"/>
@@ -6432,33 +6470,57 @@
     <row r="229" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B229" s="9"/>
       <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="7"/>
-      <c r="F229" s="7"/>
+      <c r="D229" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E229" s="7">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F229" s="7">
+        <v>0.78819444444444453</v>
+      </c>
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
-      <c r="I229" s="4"/>
+      <c r="I229" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="J229" s="1"/>
-      <c r="K229" s="10"/>
+      <c r="K229" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="230" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B230" s="9"/>
       <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="7"/>
-      <c r="F230" s="7"/>
+      <c r="D230" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E230" s="7">
+        <v>0.80347222222222225</v>
+      </c>
+      <c r="F230" s="7">
+        <v>0.84652777777777777</v>
+      </c>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
-      <c r="I230" s="4"/>
+      <c r="I230" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="J230" s="1"/>
       <c r="K230" s="10"/>
     </row>
     <row r="231" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B231" s="9"/>
       <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="7"/>
-      <c r="F231" s="7"/>
+      <c r="D231" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E231" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F231" s="7">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="4"/>
@@ -6468,9 +6530,15 @@
     <row r="232" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B232" s="9"/>
       <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="7"/>
-      <c r="F232" s="7"/>
+      <c r="D232" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E232" s="7">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="F232" s="7">
+        <v>0.21875</v>
+      </c>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="4"/>
@@ -6478,23 +6546,33 @@
       <c r="K232" s="10"/>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B233" s="9"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="7"/>
-      <c r="F233" s="7"/>
-      <c r="G233" s="1"/>
-      <c r="H233" s="1"/>
-      <c r="I233" s="4"/>
-      <c r="J233" s="1"/>
-      <c r="K233" s="10"/>
+      <c r="B233" s="19"/>
+      <c r="C233" s="20"/>
+      <c r="D233" s="20"/>
+      <c r="E233" s="21"/>
+      <c r="F233" s="21"/>
+      <c r="G233" s="20"/>
+      <c r="H233" s="20"/>
+      <c r="I233" s="22"/>
+      <c r="J233" s="20"/>
+      <c r="K233" s="23"/>
     </row>
     <row r="234" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B234" s="9"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="7"/>
-      <c r="F234" s="7"/>
+      <c r="B234" s="8">
+        <v>42754</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E234" s="7">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F234" s="7">
+        <v>0.24305555555555555</v>
+      </c>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="4"/>
@@ -6504,9 +6582,15 @@
     <row r="235" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B235" s="9"/>
       <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="7"/>
-      <c r="F235" s="7"/>
+      <c r="D235" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235" s="7">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="F235" s="7">
+        <v>0.25347222222222221</v>
+      </c>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
       <c r="I235" s="4"/>
@@ -6516,21 +6600,35 @@
     <row r="236" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B236" s="9"/>
       <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="7"/>
-      <c r="F236" s="7"/>
+      <c r="D236" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E236" s="7">
+        <v>0.28125</v>
+      </c>
+      <c r="F236" s="7">
+        <v>0.2986111111111111</v>
+      </c>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
-      <c r="I236" s="4"/>
+      <c r="I236" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="J236" s="1"/>
       <c r="K236" s="10"/>
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B237" s="9"/>
       <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="7"/>
-      <c r="F237" s="7"/>
+      <c r="D237" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E237" s="7">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F237" s="7">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="I237" s="4"/>
@@ -6540,9 +6638,15 @@
     <row r="238" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B238" s="9"/>
       <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="7"/>
-      <c r="F238" s="7"/>
+      <c r="D238" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E238" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F238" s="7">
+        <v>0.96875</v>
+      </c>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
       <c r="I238" s="4"/>
@@ -6550,23 +6654,33 @@
       <c r="K238" s="10"/>
     </row>
     <row r="239" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B239" s="9"/>
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
-      <c r="E239" s="7"/>
-      <c r="F239" s="7"/>
-      <c r="G239" s="1"/>
-      <c r="H239" s="1"/>
-      <c r="I239" s="4"/>
-      <c r="J239" s="1"/>
-      <c r="K239" s="10"/>
+      <c r="B239" s="19"/>
+      <c r="C239" s="20"/>
+      <c r="D239" s="20"/>
+      <c r="E239" s="21"/>
+      <c r="F239" s="21"/>
+      <c r="G239" s="20"/>
+      <c r="H239" s="20"/>
+      <c r="I239" s="22"/>
+      <c r="J239" s="20"/>
+      <c r="K239" s="23"/>
     </row>
     <row r="240" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B240" s="9"/>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
-      <c r="E240" s="7"/>
-      <c r="F240" s="7"/>
+      <c r="B240" s="8">
+        <v>42755</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E240" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="F240" s="7">
+        <v>0.21875</v>
+      </c>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="4"/>
@@ -6574,11 +6688,17 @@
       <c r="K240" s="10"/>
     </row>
     <row r="241" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B241" s="9"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
-      <c r="E241" s="7"/>
-      <c r="F241" s="7"/>
+      <c r="B241" s="24"/>
+      <c r="C241" s="25"/>
+      <c r="D241" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E241" s="7">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="F241" s="7">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
       <c r="I241" s="4"/>
@@ -6588,9 +6708,15 @@
     <row r="242" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B242" s="9"/>
       <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
-      <c r="E242" s="7"/>
-      <c r="F242" s="7"/>
+      <c r="D242" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242" s="7">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="F242" s="7">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
       <c r="I242" s="4"/>
@@ -6600,33 +6726,55 @@
     <row r="243" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B243" s="9"/>
       <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
-      <c r="E243" s="7"/>
-      <c r="F243" s="7"/>
+      <c r="D243" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E243" s="7">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F243" s="7">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
-      <c r="I243" s="4"/>
+      <c r="I243" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="J243" s="1"/>
       <c r="K243" s="10"/>
     </row>
     <row r="244" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B244" s="9"/>
       <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
-      <c r="E244" s="7"/>
-      <c r="F244" s="7"/>
+      <c r="D244" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E244" s="7">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="F244" s="7">
+        <v>0.66180555555555554</v>
+      </c>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
-      <c r="I244" s="4"/>
+      <c r="I244" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="J244" s="1"/>
       <c r="K244" s="10"/>
     </row>
     <row r="245" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B245" s="9"/>
       <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="7"/>
-      <c r="F245" s="7"/>
+      <c r="D245" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E245" s="7">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="F245" s="7">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
       <c r="I245" s="4"/>
@@ -6634,35 +6782,55 @@
       <c r="K245" s="10"/>
     </row>
     <row r="246" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B246" s="9"/>
-      <c r="C246" s="1"/>
-      <c r="D246" s="1"/>
-      <c r="E246" s="7"/>
-      <c r="F246" s="7"/>
-      <c r="G246" s="1"/>
-      <c r="H246" s="1"/>
-      <c r="I246" s="4"/>
-      <c r="J246" s="1"/>
-      <c r="K246" s="10"/>
+      <c r="B246" s="19"/>
+      <c r="C246" s="20"/>
+      <c r="D246" s="20"/>
+      <c r="E246" s="21"/>
+      <c r="F246" s="21"/>
+      <c r="G246" s="20"/>
+      <c r="H246" s="20"/>
+      <c r="I246" s="22"/>
+      <c r="J246" s="20"/>
+      <c r="K246" s="23"/>
     </row>
     <row r="247" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B247" s="9"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
-      <c r="E247" s="7"/>
-      <c r="F247" s="7"/>
+      <c r="B247" s="8">
+        <v>42756</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E247" s="7">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F247" s="7">
+        <v>6.5972222222222224E-2</v>
+      </c>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
-      <c r="I247" s="4"/>
+      <c r="I247" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="J247" s="1"/>
-      <c r="K247" s="10"/>
+      <c r="K247" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="248" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B248" s="9"/>
       <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
-      <c r="E248" s="7"/>
-      <c r="F248" s="7"/>
+      <c r="D248" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E248" s="7">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="F248" s="7">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
       <c r="I248" s="4"/>
@@ -6672,21 +6840,37 @@
     <row r="249" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B249" s="9"/>
       <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
-      <c r="E249" s="7"/>
-      <c r="F249" s="7"/>
+      <c r="D249" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E249" s="7">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="F249" s="7">
+        <v>0.24305555555555555</v>
+      </c>
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
-      <c r="I249" s="4"/>
+      <c r="I249" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="J249" s="1"/>
-      <c r="K249" s="10"/>
+      <c r="K249" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="250" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B250" s="9"/>
       <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="7"/>
-      <c r="F250" s="7"/>
+      <c r="D250" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E250" s="7">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="F250" s="7">
+        <v>0.3125</v>
+      </c>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
       <c r="I250" s="4"/>
@@ -6696,45 +6880,81 @@
     <row r="251" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B251" s="9"/>
       <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="7"/>
-      <c r="F251" s="7"/>
+      <c r="D251" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E251" s="7">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="F251" s="7">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
-      <c r="I251" s="4"/>
+      <c r="I251" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J251" s="1"/>
-      <c r="K251" s="10"/>
+      <c r="K251" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="252" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B252" s="9"/>
       <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
-      <c r="E252" s="7"/>
-      <c r="F252" s="7"/>
+      <c r="D252" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E252" s="7">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="F252" s="7">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
-      <c r="I252" s="4"/>
+      <c r="I252" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="J252" s="1"/>
-      <c r="K252" s="10"/>
+      <c r="K252" s="10">
+        <v>8</v>
+      </c>
     </row>
     <row r="253" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B253" s="9"/>
       <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
-      <c r="E253" s="7"/>
-      <c r="F253" s="7"/>
+      <c r="D253" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E253" s="7">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="F253" s="7">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
-      <c r="I253" s="4"/>
+      <c r="I253" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="J253" s="1"/>
-      <c r="K253" s="10"/>
+      <c r="K253" s="10">
+        <v>7</v>
+      </c>
     </row>
     <row r="254" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B254" s="9"/>
       <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
-      <c r="E254" s="7"/>
-      <c r="F254" s="7"/>
+      <c r="D254" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E254" s="7">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F254" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
       <c r="I254" s="4"/>
@@ -6742,58 +6962,94 @@
       <c r="K254" s="10"/>
     </row>
     <row r="255" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B255" s="9"/>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
-      <c r="E255" s="7"/>
-      <c r="F255" s="7"/>
-      <c r="G255" s="1"/>
-      <c r="H255" s="1"/>
-      <c r="I255" s="4"/>
-      <c r="J255" s="1"/>
-      <c r="K255" s="10"/>
+      <c r="B255" s="19"/>
+      <c r="C255" s="20"/>
+      <c r="D255" s="20"/>
+      <c r="E255" s="21"/>
+      <c r="F255" s="21"/>
+      <c r="G255" s="20"/>
+      <c r="H255" s="20"/>
+      <c r="I255" s="22"/>
+      <c r="J255" s="20"/>
+      <c r="K255" s="23"/>
     </row>
     <row r="256" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B256" s="9"/>
-      <c r="C256" s="1"/>
-      <c r="D256" s="1"/>
-      <c r="E256" s="7"/>
-      <c r="F256" s="7"/>
+      <c r="B256" s="8">
+        <v>42757</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E256" s="7">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F256" s="7">
+        <v>0.15625</v>
+      </c>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
-      <c r="I256" s="4"/>
+      <c r="I256" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="J256" s="1"/>
-      <c r="K256" s="10"/>
+      <c r="K256" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="257" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B257" s="9"/>
       <c r="C257" s="1"/>
-      <c r="D257" s="1"/>
-      <c r="E257" s="7"/>
-      <c r="F257" s="7"/>
+      <c r="D257" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E257" s="7">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="F257" s="7">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
-      <c r="I257" s="4"/>
+      <c r="I257" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="J257" s="1"/>
-      <c r="K257" s="10"/>
+      <c r="K257" s="10">
+        <v>15</v>
+      </c>
     </row>
     <row r="258" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B258" s="9"/>
       <c r="C258" s="1"/>
-      <c r="D258" s="1"/>
-      <c r="E258" s="7"/>
-      <c r="F258" s="7"/>
+      <c r="D258" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E258" s="7">
+        <v>0.2298611111111111</v>
+      </c>
+      <c r="F258" s="7">
+        <v>0.23472222222222219</v>
+      </c>
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
       <c r="I258" s="4"/>
       <c r="J258" s="1"/>
-      <c r="K258" s="10"/>
+      <c r="K258" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="259" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B259" s="9"/>
       <c r="C259" s="1"/>
-      <c r="D259" s="1"/>
-      <c r="E259" s="7"/>
+      <c r="D259" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E259" s="7">
+        <v>0.25</v>
+      </c>
       <c r="F259" s="7"/>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
@@ -6804,9 +7060,15 @@
     <row r="260" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B260" s="9"/>
       <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
-      <c r="E260" s="7"/>
-      <c r="F260" s="7"/>
+      <c r="D260" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E260" s="7">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="F260" s="7">
+        <v>0.3520833333333333</v>
+      </c>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
       <c r="I260" s="4"/>
@@ -9034,40 +9296,16 @@
       <c r="K445" s="10"/>
     </row>
     <row r="446" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B446" s="9"/>
-      <c r="C446" s="1"/>
-      <c r="D446" s="1"/>
-      <c r="E446" s="7"/>
-      <c r="F446" s="7"/>
-      <c r="G446" s="1"/>
-      <c r="H446" s="1"/>
-      <c r="I446" s="4"/>
-      <c r="J446" s="1"/>
-      <c r="K446" s="10"/>
-    </row>
-    <row r="447" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B447" s="9"/>
-      <c r="C447" s="1"/>
-      <c r="D447" s="1"/>
-      <c r="E447" s="7"/>
-      <c r="F447" s="7"/>
-      <c r="G447" s="1"/>
-      <c r="H447" s="1"/>
-      <c r="I447" s="4"/>
-      <c r="J447" s="1"/>
-      <c r="K447" s="10"/>
-    </row>
-    <row r="448" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B448" s="14"/>
-      <c r="C448" s="15"/>
-      <c r="D448" s="15"/>
-      <c r="E448" s="16"/>
-      <c r="F448" s="16"/>
-      <c r="G448" s="15"/>
-      <c r="H448" s="15"/>
-      <c r="I448" s="17"/>
-      <c r="J448" s="15"/>
-      <c r="K448" s="18"/>
+      <c r="B446" s="14"/>
+      <c r="C446" s="15"/>
+      <c r="D446" s="15"/>
+      <c r="E446" s="16"/>
+      <c r="F446" s="16"/>
+      <c r="G446" s="15"/>
+      <c r="H446" s="15"/>
+      <c r="I446" s="17"/>
+      <c r="J446" s="15"/>
+      <c r="K446" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B129:K129">

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="164">
   <si>
     <t>Date</t>
   </si>
@@ -507,6 +507,18 @@
   </si>
   <si>
     <t>Java Message Service, 2nd Ed - Chapter 1</t>
+  </si>
+  <si>
+    <t>صلاة الشفع والوتر</t>
+  </si>
+  <si>
+    <t>Java Message Service, 2nd Ed - Chapter 2</t>
+  </si>
+  <si>
+    <t>Android Basics: User Interfaces</t>
+  </si>
+  <si>
+    <t>17m</t>
   </si>
 </sst>
 </file>
@@ -1216,8 +1228,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K446" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="B2:K446"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K449" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="B2:K449"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Date" dataDxfId="9"/>
     <tableColumn id="2" name="Day" dataDxfId="8"/>
@@ -1497,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N446"/>
+  <dimension ref="B2:N449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="A260" sqref="A260:XFD260"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="G289" sqref="G289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -6992,7 +7004,7 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
       <c r="I256" s="4" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="J256" s="1"/>
       <c r="K256" s="10">
@@ -7050,7 +7062,9 @@
       <c r="E259" s="7">
         <v>0.25</v>
       </c>
-      <c r="F259" s="7"/>
+      <c r="F259" s="7">
+        <v>0.76041666666666663</v>
+      </c>
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
       <c r="I259" s="4"/>
@@ -7058,65 +7072,89 @@
       <c r="K259" s="10"/>
     </row>
     <row r="260" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B260" s="9"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E260" s="7">
-        <v>0.34722222222222227</v>
-      </c>
-      <c r="F260" s="7">
-        <v>0.3520833333333333</v>
-      </c>
-      <c r="G260" s="1"/>
-      <c r="H260" s="1"/>
-      <c r="I260" s="4"/>
-      <c r="J260" s="1"/>
-      <c r="K260" s="10"/>
+      <c r="B260" s="24"/>
+      <c r="C260" s="25"/>
+      <c r="D260" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E260" s="26">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F260" s="26">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G260" s="25"/>
+      <c r="H260" s="25"/>
+      <c r="I260" s="27"/>
+      <c r="J260" s="25"/>
+      <c r="K260" s="28"/>
     </row>
     <row r="261" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B261" s="9"/>
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
-      <c r="E261" s="7"/>
-      <c r="F261" s="7"/>
-      <c r="G261" s="1"/>
-      <c r="H261" s="1"/>
-      <c r="I261" s="4"/>
-      <c r="J261" s="1"/>
-      <c r="K261" s="10"/>
+      <c r="B261" s="24"/>
+      <c r="C261" s="25"/>
+      <c r="D261" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E261" s="26">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F261" s="26">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="G261" s="25"/>
+      <c r="H261" s="25"/>
+      <c r="I261" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J261" s="25"/>
+      <c r="K261" s="28"/>
     </row>
     <row r="262" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B262" s="9"/>
-      <c r="C262" s="1"/>
-      <c r="D262" s="1"/>
-      <c r="E262" s="7"/>
-      <c r="F262" s="7"/>
-      <c r="G262" s="1"/>
-      <c r="H262" s="1"/>
-      <c r="I262" s="4"/>
-      <c r="J262" s="1"/>
-      <c r="K262" s="10"/>
+      <c r="B262" s="24"/>
+      <c r="C262" s="25"/>
+      <c r="D262" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E262" s="26">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F262" s="26">
+        <v>0.125</v>
+      </c>
+      <c r="G262" s="25"/>
+      <c r="H262" s="25"/>
+      <c r="I262" s="27"/>
+      <c r="J262" s="25"/>
+      <c r="K262" s="28"/>
     </row>
     <row r="263" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B263" s="9"/>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
-      <c r="E263" s="7"/>
-      <c r="F263" s="7"/>
-      <c r="G263" s="1"/>
-      <c r="H263" s="1"/>
-      <c r="I263" s="4"/>
-      <c r="J263" s="1"/>
-      <c r="K263" s="10"/>
+      <c r="B263" s="19"/>
+      <c r="C263" s="20"/>
+      <c r="D263" s="20"/>
+      <c r="E263" s="21"/>
+      <c r="F263" s="21"/>
+      <c r="G263" s="20"/>
+      <c r="H263" s="20"/>
+      <c r="I263" s="22"/>
+      <c r="J263" s="20"/>
+      <c r="K263" s="23"/>
     </row>
     <row r="264" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B264" s="9"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
-      <c r="E264" s="7"/>
-      <c r="F264" s="7"/>
+      <c r="B264" s="8">
+        <v>42758</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E264" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F264" s="7">
+        <v>0.18055555555555555</v>
+      </c>
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
       <c r="I264" s="4"/>
@@ -7124,47 +7162,81 @@
       <c r="K264" s="10"/>
     </row>
     <row r="265" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B265" s="9"/>
+      <c r="B265" s="8"/>
       <c r="C265" s="1"/>
-      <c r="D265" s="1"/>
-      <c r="E265" s="7"/>
-      <c r="F265" s="7"/>
+      <c r="D265" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E265" s="7">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="F265" s="7">
+        <v>0.18541666666666667</v>
+      </c>
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
-      <c r="I265" s="4"/>
+      <c r="I265" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="J265" s="1"/>
-      <c r="K265" s="10"/>
+      <c r="K265" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="266" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B266" s="9"/>
       <c r="C266" s="1"/>
-      <c r="D266" s="1"/>
-      <c r="E266" s="7"/>
-      <c r="F266" s="7"/>
+      <c r="D266" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E266" s="7">
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="F266" s="7">
+        <v>0.21111111111111111</v>
+      </c>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
-      <c r="I266" s="4"/>
+      <c r="I266" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="J266" s="1"/>
-      <c r="K266" s="10"/>
+      <c r="K266" s="10">
+        <v>8</v>
+      </c>
     </row>
     <row r="267" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B267" s="9"/>
       <c r="C267" s="1"/>
-      <c r="D267" s="1"/>
-      <c r="E267" s="7"/>
-      <c r="F267" s="7"/>
+      <c r="D267" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E267" s="7">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F267" s="7">
+        <v>0.22916666666666666</v>
+      </c>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
-      <c r="I267" s="4"/>
+      <c r="I267" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="J267" s="1"/>
       <c r="K267" s="10"/>
     </row>
     <row r="268" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B268" s="9"/>
       <c r="C268" s="1"/>
-      <c r="D268" s="1"/>
-      <c r="E268" s="7"/>
-      <c r="F268" s="7"/>
+      <c r="D268" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E268" s="7">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="F268" s="7">
+        <v>0.25</v>
+      </c>
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
       <c r="I268" s="4"/>
@@ -7174,9 +7246,15 @@
     <row r="269" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B269" s="9"/>
       <c r="C269" s="1"/>
-      <c r="D269" s="1"/>
-      <c r="E269" s="7"/>
-      <c r="F269" s="7"/>
+      <c r="D269" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E269" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F269" s="7">
+        <v>0.75</v>
+      </c>
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
       <c r="I269" s="4"/>
@@ -7186,9 +7264,15 @@
     <row r="270" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B270" s="9"/>
       <c r="C270" s="1"/>
-      <c r="D270" s="1"/>
-      <c r="E270" s="7"/>
-      <c r="F270" s="7"/>
+      <c r="D270" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E270" s="7">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="F270" s="7">
+        <v>0.77013888888888893</v>
+      </c>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
       <c r="I270" s="4"/>
@@ -7198,9 +7282,15 @@
     <row r="271" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B271" s="9"/>
       <c r="C271" s="1"/>
-      <c r="D271" s="1"/>
-      <c r="E271" s="7"/>
-      <c r="F271" s="7"/>
+      <c r="D271" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E271" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F271" s="7">
+        <v>0.77430555555555547</v>
+      </c>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
       <c r="I271" s="4"/>
@@ -7210,9 +7300,15 @@
     <row r="272" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B272" s="9"/>
       <c r="C272" s="1"/>
-      <c r="D272" s="1"/>
-      <c r="E272" s="7"/>
-      <c r="F272" s="7"/>
+      <c r="D272" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E272" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="F272" s="7">
+        <v>0.78472222222222221</v>
+      </c>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
       <c r="I272" s="4"/>
@@ -7222,9 +7318,15 @@
     <row r="273" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B273" s="9"/>
       <c r="C273" s="1"/>
-      <c r="D273" s="1"/>
-      <c r="E273" s="7"/>
-      <c r="F273" s="7"/>
+      <c r="D273" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E273" s="7">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="F273" s="7">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
       <c r="I273" s="4"/>
@@ -7234,9 +7336,15 @@
     <row r="274" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B274" s="9"/>
       <c r="C274" s="1"/>
-      <c r="D274" s="1"/>
-      <c r="E274" s="7"/>
-      <c r="F274" s="7"/>
+      <c r="D274" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E274" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F274" s="7">
+        <v>0.93055555555555547</v>
+      </c>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
       <c r="I274" s="4"/>
@@ -7246,9 +7354,15 @@
     <row r="275" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B275" s="9"/>
       <c r="C275" s="1"/>
-      <c r="D275" s="1"/>
-      <c r="E275" s="7"/>
-      <c r="F275" s="7"/>
+      <c r="D275" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E275" s="7">
+        <v>0.94097222222222221</v>
+      </c>
+      <c r="F275" s="7">
+        <v>0.125</v>
+      </c>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
       <c r="I275" s="4"/>
@@ -7256,47 +7370,75 @@
       <c r="K275" s="10"/>
     </row>
     <row r="276" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B276" s="9"/>
-      <c r="C276" s="1"/>
-      <c r="D276" s="1"/>
-      <c r="E276" s="7"/>
-      <c r="F276" s="7"/>
-      <c r="G276" s="1"/>
-      <c r="H276" s="1"/>
-      <c r="I276" s="4"/>
-      <c r="J276" s="1"/>
-      <c r="K276" s="10"/>
+      <c r="B276" s="19"/>
+      <c r="C276" s="20"/>
+      <c r="D276" s="20"/>
+      <c r="E276" s="21"/>
+      <c r="F276" s="21"/>
+      <c r="G276" s="20"/>
+      <c r="H276" s="20"/>
+      <c r="I276" s="22"/>
+      <c r="J276" s="20"/>
+      <c r="K276" s="23"/>
     </row>
     <row r="277" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B277" s="9"/>
-      <c r="C277" s="1"/>
-      <c r="D277" s="1"/>
-      <c r="E277" s="7"/>
-      <c r="F277" s="7"/>
+      <c r="B277" s="8">
+        <v>42759</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E277" s="7">
+        <v>0.16597222222222222</v>
+      </c>
+      <c r="F277" s="7">
+        <v>0.17708333333333334</v>
+      </c>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
-      <c r="I277" s="4"/>
+      <c r="I277" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="J277" s="1"/>
-      <c r="K277" s="10"/>
+      <c r="K277" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="278" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B278" s="9"/>
       <c r="C278" s="1"/>
-      <c r="D278" s="1"/>
-      <c r="E278" s="7"/>
-      <c r="F278" s="7"/>
+      <c r="D278" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E278" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="F278" s="7">
+        <v>0.22916666666666666</v>
+      </c>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
-      <c r="I278" s="4"/>
+      <c r="I278" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="J278" s="1"/>
       <c r="K278" s="10"/>
     </row>
     <row r="279" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B279" s="9"/>
       <c r="C279" s="1"/>
-      <c r="D279" s="1"/>
-      <c r="E279" s="7"/>
-      <c r="F279" s="7"/>
+      <c r="D279" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E279" s="7">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="F279" s="7">
+        <v>0.23819444444444446</v>
+      </c>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
       <c r="I279" s="4"/>
@@ -7306,9 +7448,15 @@
     <row r="280" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B280" s="9"/>
       <c r="C280" s="1"/>
-      <c r="D280" s="1"/>
-      <c r="E280" s="7"/>
-      <c r="F280" s="7"/>
+      <c r="D280" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E280" s="7">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F280" s="7">
+        <v>0.27430555555555552</v>
+      </c>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
       <c r="I280" s="4"/>
@@ -7318,8 +7466,12 @@
     <row r="281" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B281" s="9"/>
       <c r="C281" s="1"/>
-      <c r="D281" s="1"/>
-      <c r="E281" s="7"/>
+      <c r="D281" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E281" s="7">
+        <v>0.28472222222222221</v>
+      </c>
       <c r="F281" s="7"/>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
@@ -7340,83 +7492,143 @@
       <c r="K282" s="10"/>
     </row>
     <row r="283" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B283" s="9"/>
-      <c r="C283" s="1"/>
-      <c r="D283" s="1"/>
-      <c r="E283" s="7"/>
-      <c r="F283" s="7"/>
-      <c r="G283" s="1"/>
-      <c r="H283" s="1"/>
-      <c r="I283" s="4"/>
-      <c r="J283" s="1"/>
-      <c r="K283" s="10"/>
+      <c r="B283" s="19"/>
+      <c r="C283" s="20"/>
+      <c r="D283" s="20"/>
+      <c r="E283" s="21"/>
+      <c r="F283" s="21"/>
+      <c r="G283" s="20"/>
+      <c r="H283" s="20"/>
+      <c r="I283" s="22"/>
+      <c r="J283" s="20"/>
+      <c r="K283" s="23"/>
     </row>
     <row r="284" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B284" s="9"/>
-      <c r="C284" s="1"/>
-      <c r="D284" s="1"/>
-      <c r="E284" s="7"/>
-      <c r="F284" s="7"/>
+      <c r="B284" s="8">
+        <v>42783</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E284" s="7">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="F284" s="7">
+        <v>0.50694444444444442</v>
+      </c>
       <c r="G284" s="1"/>
-      <c r="H284" s="1"/>
-      <c r="I284" s="4"/>
+      <c r="H284" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I284" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="J284" s="1"/>
-      <c r="K284" s="10"/>
+      <c r="K284" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="285" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B285" s="9"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
-      <c r="E285" s="7"/>
-      <c r="F285" s="7"/>
+      <c r="E285" s="7">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="F285" s="7">
+        <v>9.375E-2</v>
+      </c>
       <c r="G285" s="1"/>
-      <c r="H285" s="1"/>
-      <c r="I285" s="4"/>
+      <c r="H285" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I285" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="J285" s="1"/>
-      <c r="K285" s="10"/>
+      <c r="K285" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="286" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B286" s="9"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
-      <c r="E286" s="7"/>
-      <c r="F286" s="7"/>
+      <c r="E286" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="F286" s="7">
+        <v>0.13541666666666666</v>
+      </c>
       <c r="G286" s="1"/>
-      <c r="H286" s="1"/>
-      <c r="I286" s="4"/>
+      <c r="H286" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I286" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="J286" s="1"/>
-      <c r="K286" s="10"/>
+      <c r="K286" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="287" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B287" s="9"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
-      <c r="E287" s="7"/>
-      <c r="F287" s="7"/>
-      <c r="G287" s="1"/>
-      <c r="H287" s="1"/>
-      <c r="I287" s="4"/>
+      <c r="E287" s="7">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="F287" s="7">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I287" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="J287" s="1"/>
-      <c r="K287" s="10"/>
+      <c r="K287" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="288" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B288" s="9"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
-      <c r="E288" s="7"/>
-      <c r="F288" s="7"/>
+      <c r="E288" s="7">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="F288" s="7">
+        <v>0.28472222222222221</v>
+      </c>
       <c r="G288" s="1"/>
-      <c r="H288" s="1"/>
-      <c r="I288" s="4"/>
+      <c r="H288" s="7"/>
+      <c r="I288" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="J288" s="1"/>
-      <c r="K288" s="10"/>
+      <c r="K288" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="289" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B289" s="9"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
-      <c r="E289" s="7"/>
-      <c r="F289" s="7"/>
+      <c r="E289" s="7">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="F289" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
       <c r="I289" s="4"/>
@@ -9296,16 +9508,52 @@
       <c r="K445" s="10"/>
     </row>
     <row r="446" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B446" s="14"/>
-      <c r="C446" s="15"/>
-      <c r="D446" s="15"/>
-      <c r="E446" s="16"/>
-      <c r="F446" s="16"/>
-      <c r="G446" s="15"/>
-      <c r="H446" s="15"/>
-      <c r="I446" s="17"/>
-      <c r="J446" s="15"/>
-      <c r="K446" s="18"/>
+      <c r="B446" s="9"/>
+      <c r="C446" s="1"/>
+      <c r="D446" s="1"/>
+      <c r="E446" s="7"/>
+      <c r="F446" s="7"/>
+      <c r="G446" s="1"/>
+      <c r="H446" s="1"/>
+      <c r="I446" s="4"/>
+      <c r="J446" s="1"/>
+      <c r="K446" s="10"/>
+    </row>
+    <row r="447" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B447" s="9"/>
+      <c r="C447" s="1"/>
+      <c r="D447" s="1"/>
+      <c r="E447" s="7"/>
+      <c r="F447" s="7"/>
+      <c r="G447" s="1"/>
+      <c r="H447" s="1"/>
+      <c r="I447" s="4"/>
+      <c r="J447" s="1"/>
+      <c r="K447" s="10"/>
+    </row>
+    <row r="448" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B448" s="9"/>
+      <c r="C448" s="1"/>
+      <c r="D448" s="1"/>
+      <c r="E448" s="7"/>
+      <c r="F448" s="7"/>
+      <c r="G448" s="1"/>
+      <c r="H448" s="1"/>
+      <c r="I448" s="4"/>
+      <c r="J448" s="1"/>
+      <c r="K448" s="10"/>
+    </row>
+    <row r="449" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B449" s="14"/>
+      <c r="C449" s="15"/>
+      <c r="D449" s="15"/>
+      <c r="E449" s="16"/>
+      <c r="F449" s="16"/>
+      <c r="G449" s="15"/>
+      <c r="H449" s="15"/>
+      <c r="I449" s="17"/>
+      <c r="J449" s="15"/>
+      <c r="K449" s="18"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B129:K129">
